--- a/Lista_kotara_u_Splitu.xlsx
+++ b/Lista_kotara_u_Splitu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Urbanism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2C7DB6-D9A8-4A05-B17B-84F5AB647048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A9820A-3813-4D7F-A509-D3E71E2795C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FEFDD235-82CE-4D9F-86D9-D9DD3DA2A29E}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="143">
   <si>
     <t>B1</t>
   </si>
@@ -1596,7 +1596,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1728,8 +1728,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1779,6 +1777,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1788,19 +1807,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2314,7 +2333,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -2331,45 +2350,50 @@
     <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
     <col min="11" max="13" width="20.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" style="1" customWidth="1"/>
-    <col min="15" max="29" width="20.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" style="1" customWidth="1"/>
+    <col min="17" max="29" width="20.7109375" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="118"/>
-    </row>
-    <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="123"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
+      <c r="B3" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
       <c r="N3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>40</v>
       </c>
@@ -2409,12 +2433,13 @@
       <c r="M4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="120" t="s">
+      <c r="N4" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="121"/>
-    </row>
-    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="126"/>
+      <c r="P4" s="127"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>103</v>
       </c>
@@ -2454,56 +2479,57 @@
       <c r="M5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="122" t="s">
+      <c r="N5" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="O5" s="123"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5" s="129"/>
+      <c r="P5" s="130"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="109">
         <v>8</v>
       </c>
-      <c r="C6" s="111" cm="1">
+      <c r="C6" s="109" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(19, ROW(A1) + 3, 4))</f>
         <v>9</v>
       </c>
-      <c r="D6" s="111" cm="1">
+      <c r="D6" s="109" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(52, ROW(A1) + 3, 4))</f>
         <v>45.050000000000004</v>
       </c>
-      <c r="E6" s="111" cm="1">
+      <c r="E6" s="109" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(86, ROW(A1) + 3, 4))</f>
         <v>125.5</v>
       </c>
-      <c r="F6" s="111">
+      <c r="F6" s="109">
         <v>5.5</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="109">
         <v>7</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="109">
         <v>7</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="109">
         <v>6</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="109">
         <v>5</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="109">
         <v>3</v>
       </c>
-      <c r="L6" s="111" cm="1">
+      <c r="L6" s="109" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A1) + 3, 4))</f>
         <v>0.63</v>
       </c>
-      <c r="M6" s="112">
-        <v>1</v>
-      </c>
-      <c r="N6" s="113">
+      <c r="M6" s="110">
+        <v>1</v>
+      </c>
+      <c r="N6" s="111">
         <f ca="1">SUM(B6:J6)-SUM(K6:M6)</f>
         <v>213.42000000000002</v>
       </c>
@@ -2511,8 +2537,11 @@
         <f ca="1">RANK(N6,$N$6:$N$32)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2564,8 +2593,11 @@
         <f t="shared" ref="O7:O32" ca="1" si="1">RANK(N7,$N$6:$N$32)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
@@ -2617,8 +2649,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -2670,8 +2705,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -2723,8 +2761,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
@@ -2776,8 +2817,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -2819,18 +2863,21 @@
         <v>0.5</v>
       </c>
       <c r="M12" s="4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N12" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>121.30000000000001</v>
+        <v>121.20000000000002</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2872,18 +2919,21 @@
         <v>0.5</v>
       </c>
       <c r="M13" s="4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N13" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>107.4</v>
+        <v>107.30000000000001</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
@@ -2935,8 +2985,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -2978,18 +3031,21 @@
         <v>0.51</v>
       </c>
       <c r="M15" s="4">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="N15" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>186.74</v>
+        <v>186.59</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
@@ -3041,8 +3097,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -3094,8 +3153,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -3147,8 +3209,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -3200,8 +3265,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
@@ -3253,8 +3321,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
@@ -3306,8 +3377,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
@@ -3359,8 +3433,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
@@ -3412,61 +3489,67 @@
         <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="96" t="s">
+      <c r="P23" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="97">
+      <c r="B24" s="95">
         <v>7.5</v>
       </c>
-      <c r="C24" s="97" cm="1">
+      <c r="C24" s="95" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(19, ROW(A19) + 3, 4))</f>
         <v>4.5</v>
       </c>
-      <c r="D24" s="97" cm="1">
+      <c r="D24" s="95" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(52, ROW(A19) + 3, 4))</f>
         <v>35.950000000000003</v>
       </c>
-      <c r="E24" s="108" cm="1">
+      <c r="E24" s="106" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(86, ROW(A19) + 3, 4))</f>
         <v>11</v>
       </c>
-      <c r="F24" s="97">
+      <c r="F24" s="95">
         <v>7</v>
       </c>
-      <c r="G24" s="97">
+      <c r="G24" s="95">
         <v>4</v>
       </c>
-      <c r="H24" s="97">
+      <c r="H24" s="95">
         <v>2</v>
       </c>
-      <c r="I24" s="97">
+      <c r="I24" s="95">
         <v>3</v>
       </c>
-      <c r="J24" s="97">
+      <c r="J24" s="95">
         <v>6</v>
       </c>
-      <c r="K24" s="97">
+      <c r="K24" s="95">
         <v>10</v>
       </c>
-      <c r="L24" s="98" cm="1">
+      <c r="L24" s="96" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A19) + 3, 4))</f>
         <v>0.75</v>
       </c>
-      <c r="M24" s="99">
+      <c r="M24" s="97">
         <v>4</v>
       </c>
-      <c r="N24" s="100">
+      <c r="N24" s="98">
         <f t="shared" ca="1" si="0"/>
         <v>66.2</v>
       </c>
-      <c r="O24" s="101">
+      <c r="O24" s="99">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
@@ -3518,61 +3601,67 @@
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="105" t="s">
+      <c r="P25" s="118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="114">
+      <c r="B26" s="112">
         <v>8</v>
       </c>
-      <c r="C26" s="114" cm="1">
+      <c r="C26" s="112" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(19, ROW(A21) + 3, 4))</f>
         <v>7.5</v>
       </c>
-      <c r="D26" s="114" cm="1">
+      <c r="D26" s="112" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(52, ROW(A21) + 3, 4))</f>
         <v>51.249999999999993</v>
       </c>
-      <c r="E26" s="114" cm="1">
+      <c r="E26" s="112" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(86, ROW(A21) + 3, 4))</f>
         <v>110.5</v>
       </c>
-      <c r="F26" s="114">
+      <c r="F26" s="112">
         <v>5</v>
       </c>
-      <c r="G26" s="114">
+      <c r="G26" s="112">
         <v>7</v>
       </c>
-      <c r="H26" s="114">
+      <c r="H26" s="112">
         <v>8.5</v>
       </c>
-      <c r="I26" s="114">
+      <c r="I26" s="112">
         <v>8</v>
       </c>
-      <c r="J26" s="114">
+      <c r="J26" s="112">
         <v>5</v>
       </c>
-      <c r="K26" s="114">
+      <c r="K26" s="112">
         <v>2.5</v>
       </c>
-      <c r="L26" s="115" cm="1">
+      <c r="L26" s="113" cm="1">
         <f t="array" aca="1" ref="L26" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A21) + 3, 4))</f>
         <v>0.43</v>
       </c>
-      <c r="M26" s="107">
-        <v>1</v>
-      </c>
-      <c r="N26" s="116">
+      <c r="M26" s="105">
+        <v>1</v>
+      </c>
+      <c r="N26" s="114">
         <f t="shared" ca="1" si="0"/>
         <v>206.82</v>
       </c>
-      <c r="O26" s="107">
+      <c r="O26" s="105">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>23</v>
       </c>
@@ -3624,8 +3713,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>24</v>
       </c>
@@ -3677,8 +3769,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>25</v>
       </c>
@@ -3730,8 +3825,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
@@ -3775,16 +3873,19 @@
       <c r="M30" s="4">
         <v>2</v>
       </c>
-      <c r="N30" s="102">
+      <c r="N30" s="100">
         <f t="shared" ca="1" si="0"/>
         <v>89.5</v>
       </c>
-      <c r="O30" s="103">
+      <c r="O30" s="101">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>27</v>
       </c>
@@ -3836,8 +3937,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P31" s="118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
         <v>28</v>
       </c>
@@ -3889,10 +3993,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
+      <c r="P32" s="121" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="33" spans="13:15" x14ac:dyDescent="0.3">
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
       <c r="O33" s="84"/>
     </row>
     <row r="34" spans="13:15" x14ac:dyDescent="0.3">
@@ -3903,8 +4010,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B3:M3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3933,15 +4040,17 @@
     <col min="10" max="10" width="35.5703125" style="1" customWidth="1"/>
     <col min="11" max="13" width="20.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" style="1" customWidth="1"/>
-    <col min="15" max="29" width="20.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" style="1" customWidth="1"/>
+    <col min="17" max="29" width="20.7109375" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="123"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -3950,25 +4059,28 @@
       <c r="A3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
+      <c r="B3" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
       <c r="N3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="116" t="s">
         <v>105</v>
+      </c>
+      <c r="P3" s="116" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -4011,10 +4123,11 @@
       <c r="M4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="120" t="s">
+      <c r="N4" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="121"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="127"/>
     </row>
     <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
@@ -4056,10 +4169,11 @@
       <c r="M5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="122" t="s">
+      <c r="N5" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="O5" s="123"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="130"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -4121,6 +4235,9 @@
         <f ca="1">RANK(N6,$N$6:$N$32)</f>
         <v>2</v>
       </c>
+      <c r="P6" s="118" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -4182,6 +4299,9 @@
         <f t="shared" ref="O7:O32" ca="1" si="1">RANK(N7,$N$6:$N$32)</f>
         <v>9</v>
       </c>
+      <c r="P7" s="118" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -4243,6 +4363,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
+      <c r="P8" s="118" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -4304,6 +4427,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
+      <c r="P9" s="118" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -4365,6 +4491,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
+      <c r="P10" s="118" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -4426,6 +4555,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
+      <c r="P11" s="118" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -4477,16 +4609,19 @@
       </c>
       <c r="M12" s="30" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">Ocjene!M12/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L7) - 1) &amp; $A$34)</f>
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="N12" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>12.931444988329552</v>
+        <v>12.906444988329552</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
+      <c r="P12" s="118" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -4538,16 +4673,19 @@
       </c>
       <c r="M13" s="30" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">Ocjene!M13/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L8) - 1) &amp; $A$34)</f>
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="N13" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>11.992191535863302</v>
+        <v>11.967191535863302</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
+      <c r="P13" s="118" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -4609,6 +4747,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
+      <c r="P14" s="118" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -4660,16 +4801,19 @@
       </c>
       <c r="M15" s="30" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">Ocjene!M15/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L10) - 1) &amp; $A$34)</f>
-        <v>0.26250000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="N15" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>21.17810060168544</v>
+        <v>21.140600601685438</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
+      <c r="P15" s="118" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -4731,7 +4875,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="P16" s="85"/>
+      <c r="P16" s="118" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -4793,7 +4939,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="P17" s="86"/>
+      <c r="P17" s="118" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -4855,6 +5003,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
+      <c r="P18" s="118" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -4916,6 +5067,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
+      <c r="P19" s="118" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -4977,6 +5131,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
+      <c r="P20" s="118" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -5038,6 +5195,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
+      <c r="P21" s="118" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -5099,6 +5259,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
+      <c r="P22" s="118" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
@@ -5160,6 +5323,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
+      <c r="P23" s="118" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
@@ -5221,6 +5387,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
+      <c r="P24" s="122" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
@@ -5282,6 +5451,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
+      <c r="P25" s="118" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="68" t="s">
@@ -5343,6 +5515,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
+      <c r="P26" s="117" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
@@ -5404,6 +5579,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
+      <c r="P27" s="118" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
@@ -5465,6 +5643,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
+      <c r="P28" s="118" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
@@ -5526,6 +5707,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
+      <c r="P29" s="118" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
@@ -5587,6 +5771,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
+      <c r="P30" s="118" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
@@ -5648,6 +5835,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
+      <c r="P31" s="118" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
@@ -5709,12 +5899,15 @@
         <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
+      <c r="P32" s="121" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="87"/>
+      <c r="M33" s="85"/>
       <c r="N33" s="83"/>
       <c r="O33" s="84"/>
     </row>
@@ -5729,8 +5922,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B3:M3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5759,10 +5952,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -5780,11 +5973,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="121"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -5796,11 +5989,11 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="123"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -5886,11 +6079,11 @@
       </c>
       <c r="B12" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B12:J12) / PRODUCT('Normalizirane vrijednosti'!K12:M12)</f>
-        <v>299.39854736516764</v>
+        <v>272.18049760469785</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -5899,7 +6092,7 @@
       </c>
       <c r="B13" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B13:J13) / PRODUCT('Normalizirane vrijednosti'!K13:M13)</f>
-        <v>263.47705146036157</v>
+        <v>239.52459223669231</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -5925,11 +6118,11 @@
       </c>
       <c r="B15" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B15:J15) / PRODUCT('Normalizirane vrijednosti'!K15:M15)</f>
-        <v>1998.8455003196491</v>
+        <v>1748.989812779693</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -5955,7 +6148,7 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5972,14 +6165,14 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="104">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B19:J19) / PRODUCT('Normalizirane vrijednosti'!K19:M19)</f>
         <v>5154.4766159508845</v>
       </c>
-      <c r="C19" s="107">
+      <c r="C19" s="105">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
@@ -6059,14 +6252,14 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="104">
+      <c r="B26" s="102">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B26:J26) / PRODUCT('Normalizirane vrijednosti'!K26:M26)</f>
         <v>8387.6685584483857</v>
       </c>
@@ -6184,18 +6377,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="123"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
@@ -7697,121 +7890,121 @@
     </row>
     <row r="20" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>1</v>
       </c>
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="157"/>
+      <c r="C22" s="162"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>2</v>
       </c>
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="174" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="128"/>
+      <c r="C23" s="133"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>3</v>
       </c>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="128"/>
+      <c r="C24" s="133"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="128"/>
+      <c r="C25" s="133"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="128"/>
+      <c r="C26" s="133"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="141"/>
+      <c r="C27" s="146"/>
     </row>
     <row r="28" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="157"/>
+      <c r="C30" s="162"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="128"/>
+      <c r="C31" s="133"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="128"/>
+      <c r="C32" s="133"/>
     </row>
     <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="140" t="s">
+      <c r="B33" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="141"/>
+      <c r="C33" s="146"/>
     </row>
     <row r="34" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
     </row>
     <row r="35" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
     </row>
     <row r="36" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
@@ -8393,7 +8586,7 @@
     </row>
     <row r="42" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
-      <c r="B42" s="109"/>
+      <c r="B42" s="107"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -8424,11 +8617,11 @@
       <c r="AD42" s="12"/>
     </row>
     <row r="43" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="162" t="s">
+      <c r="A43" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
     </row>
     <row r="44" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="67" t="s">
@@ -8529,7 +8722,7 @@
       <c r="B45" s="18">
         <v>20</v>
       </c>
-      <c r="C45" s="164" t="s">
+      <c r="C45" s="169" t="s">
         <v>92</v>
       </c>
       <c r="D45">
@@ -8648,7 +8841,7 @@
       <c r="B46" s="19">
         <v>15</v>
       </c>
-      <c r="C46" s="165"/>
+      <c r="C46" s="170"/>
       <c r="D46">
         <f>B46-3</f>
         <v>12</v>
@@ -8765,7 +8958,7 @@
       <c r="B47" s="19">
         <v>8</v>
       </c>
-      <c r="C47" s="165"/>
+      <c r="C47" s="170"/>
       <c r="D47">
         <f>B47-4.5</f>
         <v>3.5</v>
@@ -8881,7 +9074,7 @@
       <c r="B48" s="19">
         <v>5</v>
       </c>
-      <c r="C48" s="165"/>
+      <c r="C48" s="170"/>
       <c r="D48">
         <f>B48-1.6</f>
         <v>3.4</v>
@@ -8998,7 +9191,7 @@
       <c r="B49" s="19">
         <v>7</v>
       </c>
-      <c r="C49" s="165"/>
+      <c r="C49" s="170"/>
       <c r="D49">
         <f>B49-4.3</f>
         <v>2.7</v>
@@ -9115,7 +9308,7 @@
       <c r="B50" s="19">
         <v>7</v>
       </c>
-      <c r="C50" s="165"/>
+      <c r="C50" s="170"/>
       <c r="D50" s="26">
         <f>B50-5.7</f>
         <v>1.2999999999999998</v>
@@ -9232,7 +9425,7 @@
       <c r="B51" s="19">
         <v>6</v>
       </c>
-      <c r="C51" s="166"/>
+      <c r="C51" s="171"/>
       <c r="D51">
         <f>B51-0.55</f>
         <v>5.45</v>
@@ -9461,116 +9654,116 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="126" t="s">
+      <c r="H53" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="Z53" s="126" t="s">
+      <c r="Z53" s="131" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="126"/>
-      <c r="Z54" s="126"/>
+      <c r="H54" s="131"/>
+      <c r="Z54" s="131"/>
     </row>
     <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="167" t="s">
+      <c r="A55" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="168"/>
-      <c r="C55" s="168"/>
-      <c r="H55" s="126"/>
-      <c r="Z55" s="126"/>
+      <c r="B55" s="173"/>
+      <c r="C55" s="173"/>
+      <c r="H55" s="131"/>
+      <c r="Z55" s="131"/>
     </row>
     <row r="56" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="157"/>
-      <c r="Z56" s="126"/>
+      <c r="C56" s="162"/>
+      <c r="Z56" s="131"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="127" t="s">
+      <c r="B57" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="128"/>
+      <c r="C57" s="133"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="128"/>
+      <c r="C58" s="133"/>
     </row>
     <row r="59" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="140" t="s">
+      <c r="B59" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="141"/>
+      <c r="C59" s="146"/>
     </row>
     <row r="60" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="93"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="129" t="s">
+      <c r="A61" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="130"/>
-      <c r="C61" s="130"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="135"/>
     </row>
     <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="142" t="s">
+      <c r="A62" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="143"/>
-      <c r="C62" s="144"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="149"/>
     </row>
     <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="145"/>
-      <c r="B63" s="146"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="117"/>
+      <c r="A63" s="150"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="115"/>
     </row>
     <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="145"/>
-      <c r="B64" s="146"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="117"/>
+      <c r="A64" s="150"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="115"/>
     </row>
     <row r="65" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="145"/>
-      <c r="B65" s="146"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="117"/>
-      <c r="Z65" s="126" t="s">
+      <c r="A65" s="150"/>
+      <c r="B65" s="151"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="115"/>
+      <c r="Z65" s="131" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" s="145"/>
-      <c r="B66" s="146"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="117"/>
-      <c r="Z66" s="126"/>
+      <c r="A66" s="150"/>
+      <c r="B66" s="151"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="115"/>
+      <c r="Z66" s="131"/>
     </row>
     <row r="67" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="148"/>
-      <c r="B67" s="149"/>
-      <c r="C67" s="150"/>
-      <c r="D67" s="117"/>
-      <c r="Z67" s="126"/>
+      <c r="A67" s="153"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="115"/>
+      <c r="Z67" s="131"/>
     </row>
     <row r="68" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="67" t="s">
@@ -9784,754 +9977,754 @@
       </c>
     </row>
     <row r="70" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="131" t="s">
+      <c r="A70" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="134">
+      <c r="B70" s="139">
         <v>3</v>
       </c>
-      <c r="C70" s="137" t="s">
+      <c r="C70" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="176">
+      <c r="D70" s="181">
         <f>3*4</f>
         <v>12</v>
       </c>
-      <c r="E70" s="151">
+      <c r="E70" s="156">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="F70" s="151">
+      <c r="F70" s="156">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="G70" s="151">
+      <c r="G70" s="156">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="H70" s="151">
+      <c r="H70" s="156">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="I70" s="151">
+      <c r="I70" s="156">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="J70" s="151">
+      <c r="J70" s="156">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="K70" s="151">
+      <c r="K70" s="156">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="L70" s="151">
+      <c r="L70" s="156">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="M70" s="151">
+      <c r="M70" s="156">
         <f>3*5</f>
         <v>15</v>
       </c>
-      <c r="N70" s="151">
+      <c r="N70" s="156">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="O70" s="151">
-        <v>0</v>
-      </c>
-      <c r="P70" s="151">
+      <c r="O70" s="156">
+        <v>0</v>
+      </c>
+      <c r="P70" s="156">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="Q70" s="151">
+      <c r="Q70" s="156">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="R70" s="151">
+      <c r="R70" s="156">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="S70" s="151">
+      <c r="S70" s="156">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="T70" s="151">
+      <c r="T70" s="156">
         <f>3*2</f>
         <v>6</v>
       </c>
-      <c r="U70" s="151">
+      <c r="U70" s="156">
         <f>3*1</f>
         <v>3</v>
       </c>
-      <c r="V70" s="151">
-        <v>0</v>
-      </c>
-      <c r="W70" s="151">
+      <c r="V70" s="156">
+        <v>0</v>
+      </c>
+      <c r="W70" s="156">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="X70" s="151">
+      <c r="X70" s="156">
         <f>3*4</f>
         <v>12</v>
       </c>
-      <c r="Y70" s="151">
+      <c r="Y70" s="156">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="Z70" s="151">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="151">
+      <c r="Z70" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="156">
         <f>3*4</f>
         <v>12</v>
       </c>
-      <c r="AB70" s="177">
+      <c r="AB70" s="182">
         <f>2.5*1+1.5*2</f>
         <v>5.5</v>
       </c>
-      <c r="AC70" s="151">
+      <c r="AC70" s="156">
         <f>2.5*3</f>
         <v>7.5</v>
       </c>
-      <c r="AD70" s="151">
+      <c r="AD70" s="156">
         <f>2.5*2</f>
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" s="132"/>
-      <c r="B71" s="135"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="176"/>
-      <c r="E71" s="151"/>
-      <c r="F71" s="151"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="151"/>
-      <c r="I71" s="151"/>
-      <c r="J71" s="151"/>
-      <c r="K71" s="151"/>
-      <c r="L71" s="151"/>
-      <c r="M71" s="151"/>
-      <c r="N71" s="151"/>
-      <c r="O71" s="151"/>
-      <c r="P71" s="151"/>
-      <c r="Q71" s="151"/>
-      <c r="R71" s="151"/>
-      <c r="S71" s="151"/>
-      <c r="T71" s="151"/>
-      <c r="U71" s="151"/>
-      <c r="V71" s="151"/>
-      <c r="W71" s="151"/>
-      <c r="X71" s="151"/>
-      <c r="Y71" s="151"/>
-      <c r="Z71" s="151"/>
-      <c r="AA71" s="151"/>
-      <c r="AB71" s="177"/>
-      <c r="AC71" s="151"/>
-      <c r="AD71" s="151"/>
+      <c r="A71" s="137"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="181"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="156"/>
+      <c r="G71" s="156"/>
+      <c r="H71" s="156"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="156"/>
+      <c r="K71" s="156"/>
+      <c r="L71" s="156"/>
+      <c r="M71" s="156"/>
+      <c r="N71" s="156"/>
+      <c r="O71" s="156"/>
+      <c r="P71" s="156"/>
+      <c r="Q71" s="156"/>
+      <c r="R71" s="156"/>
+      <c r="S71" s="156"/>
+      <c r="T71" s="156"/>
+      <c r="U71" s="156"/>
+      <c r="V71" s="156"/>
+      <c r="W71" s="156"/>
+      <c r="X71" s="156"/>
+      <c r="Y71" s="156"/>
+      <c r="Z71" s="156"/>
+      <c r="AA71" s="156"/>
+      <c r="AB71" s="182"/>
+      <c r="AC71" s="156"/>
+      <c r="AD71" s="156"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A72" s="133"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="176"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="151"/>
-      <c r="H72" s="151"/>
-      <c r="I72" s="151"/>
-      <c r="J72" s="151"/>
-      <c r="K72" s="151"/>
-      <c r="L72" s="151"/>
-      <c r="M72" s="151"/>
-      <c r="N72" s="151"/>
-      <c r="O72" s="151"/>
-      <c r="P72" s="151"/>
-      <c r="Q72" s="151"/>
-      <c r="R72" s="151"/>
-      <c r="S72" s="151"/>
-      <c r="T72" s="151"/>
-      <c r="U72" s="151"/>
-      <c r="V72" s="151"/>
-      <c r="W72" s="151"/>
-      <c r="X72" s="151"/>
-      <c r="Y72" s="151"/>
-      <c r="Z72" s="151"/>
-      <c r="AA72" s="151"/>
-      <c r="AB72" s="177"/>
-      <c r="AC72" s="151"/>
-      <c r="AD72" s="151"/>
+      <c r="A72" s="138"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="144"/>
+      <c r="D72" s="181"/>
+      <c r="E72" s="156"/>
+      <c r="F72" s="156"/>
+      <c r="G72" s="156"/>
+      <c r="H72" s="156"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="156"/>
+      <c r="K72" s="156"/>
+      <c r="L72" s="156"/>
+      <c r="M72" s="156"/>
+      <c r="N72" s="156"/>
+      <c r="O72" s="156"/>
+      <c r="P72" s="156"/>
+      <c r="Q72" s="156"/>
+      <c r="R72" s="156"/>
+      <c r="S72" s="156"/>
+      <c r="T72" s="156"/>
+      <c r="U72" s="156"/>
+      <c r="V72" s="156"/>
+      <c r="W72" s="156"/>
+      <c r="X72" s="156"/>
+      <c r="Y72" s="156"/>
+      <c r="Z72" s="156"/>
+      <c r="AA72" s="156"/>
+      <c r="AB72" s="182"/>
+      <c r="AC72" s="156"/>
+      <c r="AD72" s="156"/>
     </row>
     <row r="73" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="131" t="s">
+      <c r="A73" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="170">
+      <c r="B73" s="175">
         <v>3</v>
       </c>
-      <c r="C73" s="173" t="s">
+      <c r="C73" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="176">
+      <c r="D73" s="181">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="E73" s="151">
+      <c r="E73" s="156">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="F73" s="151">
+      <c r="F73" s="156">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="G73" s="151">
+      <c r="G73" s="156">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="H73" s="151">
+      <c r="H73" s="156">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="I73" s="151">
+      <c r="I73" s="156">
         <f>3*5</f>
         <v>15</v>
       </c>
-      <c r="J73" s="151">
+      <c r="J73" s="156">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="K73" s="151">
+      <c r="K73" s="156">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="L73" s="151">
+      <c r="L73" s="156">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="M73" s="151">
+      <c r="M73" s="156">
         <f>3*2</f>
         <v>6</v>
       </c>
-      <c r="N73" s="151">
+      <c r="N73" s="156">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="O73" s="151">
+      <c r="O73" s="156">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="P73" s="151">
+      <c r="P73" s="156">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="Q73" s="151">
+      <c r="Q73" s="156">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="R73" s="151">
+      <c r="R73" s="156">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="S73" s="151">
+      <c r="S73" s="156">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="T73" s="151">
+      <c r="T73" s="156">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="U73" s="151">
+      <c r="U73" s="156">
         <f>3*1</f>
         <v>3</v>
       </c>
-      <c r="V73" s="151">
+      <c r="V73" s="156">
         <f>3*1</f>
         <v>3</v>
       </c>
-      <c r="W73" s="151">
+      <c r="W73" s="156">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="X73" s="151">
+      <c r="X73" s="156">
         <f>3*5</f>
         <v>15</v>
       </c>
-      <c r="Y73" s="151">
+      <c r="Y73" s="156">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="Z73" s="151">
+      <c r="Z73" s="156">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="AA73" s="151">
+      <c r="AA73" s="156">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="AB73" s="151">
+      <c r="AB73" s="156">
         <f>1.5*5</f>
         <v>7.5</v>
       </c>
-      <c r="AC73" s="151">
+      <c r="AC73" s="156">
         <f>2.5*3</f>
         <v>7.5</v>
       </c>
-      <c r="AD73" s="151">
+      <c r="AD73" s="156">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A74" s="132"/>
-      <c r="B74" s="171"/>
-      <c r="C74" s="174"/>
-      <c r="D74" s="176"/>
-      <c r="E74" s="151"/>
-      <c r="F74" s="151"/>
-      <c r="G74" s="151"/>
-      <c r="H74" s="151"/>
-      <c r="I74" s="151"/>
-      <c r="J74" s="151"/>
-      <c r="K74" s="151"/>
-      <c r="L74" s="151"/>
-      <c r="M74" s="151"/>
-      <c r="N74" s="151"/>
-      <c r="O74" s="151"/>
-      <c r="P74" s="151"/>
-      <c r="Q74" s="151"/>
-      <c r="R74" s="151"/>
-      <c r="S74" s="151"/>
-      <c r="T74" s="151"/>
-      <c r="U74" s="151"/>
-      <c r="V74" s="151"/>
-      <c r="W74" s="151"/>
-      <c r="X74" s="151"/>
-      <c r="Y74" s="151"/>
-      <c r="Z74" s="151"/>
-      <c r="AA74" s="151"/>
-      <c r="AB74" s="151"/>
-      <c r="AC74" s="151"/>
-      <c r="AD74" s="151"/>
+      <c r="A74" s="137"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="179"/>
+      <c r="D74" s="181"/>
+      <c r="E74" s="156"/>
+      <c r="F74" s="156"/>
+      <c r="G74" s="156"/>
+      <c r="H74" s="156"/>
+      <c r="I74" s="156"/>
+      <c r="J74" s="156"/>
+      <c r="K74" s="156"/>
+      <c r="L74" s="156"/>
+      <c r="M74" s="156"/>
+      <c r="N74" s="156"/>
+      <c r="O74" s="156"/>
+      <c r="P74" s="156"/>
+      <c r="Q74" s="156"/>
+      <c r="R74" s="156"/>
+      <c r="S74" s="156"/>
+      <c r="T74" s="156"/>
+      <c r="U74" s="156"/>
+      <c r="V74" s="156"/>
+      <c r="W74" s="156"/>
+      <c r="X74" s="156"/>
+      <c r="Y74" s="156"/>
+      <c r="Z74" s="156"/>
+      <c r="AA74" s="156"/>
+      <c r="AB74" s="156"/>
+      <c r="AC74" s="156"/>
+      <c r="AD74" s="156"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A75" s="132"/>
-      <c r="B75" s="171"/>
-      <c r="C75" s="174"/>
-      <c r="D75" s="176"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="151"/>
-      <c r="G75" s="151"/>
-      <c r="H75" s="151"/>
-      <c r="I75" s="151"/>
-      <c r="J75" s="151"/>
-      <c r="K75" s="151"/>
-      <c r="L75" s="151"/>
-      <c r="M75" s="151"/>
-      <c r="N75" s="151"/>
-      <c r="O75" s="151"/>
-      <c r="P75" s="151"/>
-      <c r="Q75" s="151"/>
-      <c r="R75" s="151"/>
-      <c r="S75" s="151"/>
-      <c r="T75" s="151"/>
-      <c r="U75" s="151"/>
-      <c r="V75" s="151"/>
-      <c r="W75" s="151"/>
-      <c r="X75" s="151"/>
-      <c r="Y75" s="151"/>
-      <c r="Z75" s="151"/>
-      <c r="AA75" s="151"/>
-      <c r="AB75" s="151"/>
-      <c r="AC75" s="151"/>
-      <c r="AD75" s="151"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="179"/>
+      <c r="D75" s="181"/>
+      <c r="E75" s="156"/>
+      <c r="F75" s="156"/>
+      <c r="G75" s="156"/>
+      <c r="H75" s="156"/>
+      <c r="I75" s="156"/>
+      <c r="J75" s="156"/>
+      <c r="K75" s="156"/>
+      <c r="L75" s="156"/>
+      <c r="M75" s="156"/>
+      <c r="N75" s="156"/>
+      <c r="O75" s="156"/>
+      <c r="P75" s="156"/>
+      <c r="Q75" s="156"/>
+      <c r="R75" s="156"/>
+      <c r="S75" s="156"/>
+      <c r="T75" s="156"/>
+      <c r="U75" s="156"/>
+      <c r="V75" s="156"/>
+      <c r="W75" s="156"/>
+      <c r="X75" s="156"/>
+      <c r="Y75" s="156"/>
+      <c r="Z75" s="156"/>
+      <c r="AA75" s="156"/>
+      <c r="AB75" s="156"/>
+      <c r="AC75" s="156"/>
+      <c r="AD75" s="156"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A76" s="132"/>
-      <c r="B76" s="171"/>
-      <c r="C76" s="174"/>
-      <c r="D76" s="176"/>
-      <c r="E76" s="151"/>
-      <c r="F76" s="151"/>
-      <c r="G76" s="151"/>
-      <c r="H76" s="151"/>
-      <c r="I76" s="151"/>
-      <c r="J76" s="151"/>
-      <c r="K76" s="151"/>
-      <c r="L76" s="151"/>
-      <c r="M76" s="151"/>
-      <c r="N76" s="151"/>
-      <c r="O76" s="151"/>
-      <c r="P76" s="151"/>
-      <c r="Q76" s="151"/>
-      <c r="R76" s="151"/>
-      <c r="S76" s="151"/>
-      <c r="T76" s="151"/>
-      <c r="U76" s="151"/>
-      <c r="V76" s="151"/>
-      <c r="W76" s="151"/>
-      <c r="X76" s="151"/>
-      <c r="Y76" s="151"/>
-      <c r="Z76" s="151"/>
-      <c r="AA76" s="151"/>
-      <c r="AB76" s="151"/>
-      <c r="AC76" s="151"/>
-      <c r="AD76" s="151"/>
+      <c r="A76" s="137"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="181"/>
+      <c r="E76" s="156"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="156"/>
+      <c r="H76" s="156"/>
+      <c r="I76" s="156"/>
+      <c r="J76" s="156"/>
+      <c r="K76" s="156"/>
+      <c r="L76" s="156"/>
+      <c r="M76" s="156"/>
+      <c r="N76" s="156"/>
+      <c r="O76" s="156"/>
+      <c r="P76" s="156"/>
+      <c r="Q76" s="156"/>
+      <c r="R76" s="156"/>
+      <c r="S76" s="156"/>
+      <c r="T76" s="156"/>
+      <c r="U76" s="156"/>
+      <c r="V76" s="156"/>
+      <c r="W76" s="156"/>
+      <c r="X76" s="156"/>
+      <c r="Y76" s="156"/>
+      <c r="Z76" s="156"/>
+      <c r="AA76" s="156"/>
+      <c r="AB76" s="156"/>
+      <c r="AC76" s="156"/>
+      <c r="AD76" s="156"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A77" s="132"/>
-      <c r="B77" s="171"/>
-      <c r="C77" s="174"/>
-      <c r="D77" s="176"/>
-      <c r="E77" s="151"/>
-      <c r="F77" s="151"/>
-      <c r="G77" s="151"/>
-      <c r="H77" s="151"/>
-      <c r="I77" s="151"/>
-      <c r="J77" s="151"/>
-      <c r="K77" s="151"/>
-      <c r="L77" s="151"/>
-      <c r="M77" s="151"/>
-      <c r="N77" s="151"/>
-      <c r="O77" s="151"/>
-      <c r="P77" s="151"/>
-      <c r="Q77" s="151"/>
-      <c r="R77" s="151"/>
-      <c r="S77" s="151"/>
-      <c r="T77" s="151"/>
-      <c r="U77" s="151"/>
-      <c r="V77" s="151"/>
-      <c r="W77" s="151"/>
-      <c r="X77" s="151"/>
-      <c r="Y77" s="151"/>
-      <c r="Z77" s="151"/>
-      <c r="AA77" s="151"/>
-      <c r="AB77" s="151"/>
-      <c r="AC77" s="151"/>
-      <c r="AD77" s="151"/>
+      <c r="A77" s="137"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="179"/>
+      <c r="D77" s="181"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="156"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="156"/>
+      <c r="K77" s="156"/>
+      <c r="L77" s="156"/>
+      <c r="M77" s="156"/>
+      <c r="N77" s="156"/>
+      <c r="O77" s="156"/>
+      <c r="P77" s="156"/>
+      <c r="Q77" s="156"/>
+      <c r="R77" s="156"/>
+      <c r="S77" s="156"/>
+      <c r="T77" s="156"/>
+      <c r="U77" s="156"/>
+      <c r="V77" s="156"/>
+      <c r="W77" s="156"/>
+      <c r="X77" s="156"/>
+      <c r="Y77" s="156"/>
+      <c r="Z77" s="156"/>
+      <c r="AA77" s="156"/>
+      <c r="AB77" s="156"/>
+      <c r="AC77" s="156"/>
+      <c r="AD77" s="156"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A78" s="132"/>
-      <c r="B78" s="171"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="176"/>
-      <c r="E78" s="151"/>
-      <c r="F78" s="151"/>
-      <c r="G78" s="151"/>
-      <c r="H78" s="151"/>
-      <c r="I78" s="151"/>
-      <c r="J78" s="151"/>
-      <c r="K78" s="151"/>
-      <c r="L78" s="151"/>
-      <c r="M78" s="151"/>
-      <c r="N78" s="151"/>
-      <c r="O78" s="151"/>
-      <c r="P78" s="151"/>
-      <c r="Q78" s="151"/>
-      <c r="R78" s="151"/>
-      <c r="S78" s="151"/>
-      <c r="T78" s="151"/>
-      <c r="U78" s="151"/>
-      <c r="V78" s="151"/>
-      <c r="W78" s="151"/>
-      <c r="X78" s="151"/>
-      <c r="Y78" s="151"/>
-      <c r="Z78" s="151"/>
-      <c r="AA78" s="151"/>
-      <c r="AB78" s="151"/>
-      <c r="AC78" s="151"/>
-      <c r="AD78" s="151"/>
+      <c r="A78" s="137"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="181"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="156"/>
+      <c r="G78" s="156"/>
+      <c r="H78" s="156"/>
+      <c r="I78" s="156"/>
+      <c r="J78" s="156"/>
+      <c r="K78" s="156"/>
+      <c r="L78" s="156"/>
+      <c r="M78" s="156"/>
+      <c r="N78" s="156"/>
+      <c r="O78" s="156"/>
+      <c r="P78" s="156"/>
+      <c r="Q78" s="156"/>
+      <c r="R78" s="156"/>
+      <c r="S78" s="156"/>
+      <c r="T78" s="156"/>
+      <c r="U78" s="156"/>
+      <c r="V78" s="156"/>
+      <c r="W78" s="156"/>
+      <c r="X78" s="156"/>
+      <c r="Y78" s="156"/>
+      <c r="Z78" s="156"/>
+      <c r="AA78" s="156"/>
+      <c r="AB78" s="156"/>
+      <c r="AC78" s="156"/>
+      <c r="AD78" s="156"/>
     </row>
     <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="133"/>
-      <c r="B79" s="172"/>
-      <c r="C79" s="175"/>
-      <c r="D79" s="176"/>
-      <c r="E79" s="151"/>
-      <c r="F79" s="151"/>
-      <c r="G79" s="151"/>
-      <c r="H79" s="151"/>
-      <c r="I79" s="151"/>
-      <c r="J79" s="151"/>
-      <c r="K79" s="151"/>
-      <c r="L79" s="151"/>
-      <c r="M79" s="151"/>
-      <c r="N79" s="151"/>
-      <c r="O79" s="151"/>
-      <c r="P79" s="151"/>
-      <c r="Q79" s="151"/>
-      <c r="R79" s="151"/>
-      <c r="S79" s="151"/>
-      <c r="T79" s="151"/>
-      <c r="U79" s="151"/>
-      <c r="V79" s="151"/>
-      <c r="W79" s="151"/>
-      <c r="X79" s="151"/>
-      <c r="Y79" s="151"/>
-      <c r="Z79" s="151"/>
-      <c r="AA79" s="151"/>
-      <c r="AB79" s="151"/>
-      <c r="AC79" s="151"/>
-      <c r="AD79" s="151"/>
+      <c r="A79" s="138"/>
+      <c r="B79" s="177"/>
+      <c r="C79" s="180"/>
+      <c r="D79" s="181"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="156"/>
+      <c r="H79" s="156"/>
+      <c r="I79" s="156"/>
+      <c r="J79" s="156"/>
+      <c r="K79" s="156"/>
+      <c r="L79" s="156"/>
+      <c r="M79" s="156"/>
+      <c r="N79" s="156"/>
+      <c r="O79" s="156"/>
+      <c r="P79" s="156"/>
+      <c r="Q79" s="156"/>
+      <c r="R79" s="156"/>
+      <c r="S79" s="156"/>
+      <c r="T79" s="156"/>
+      <c r="U79" s="156"/>
+      <c r="V79" s="156"/>
+      <c r="W79" s="156"/>
+      <c r="X79" s="156"/>
+      <c r="Y79" s="156"/>
+      <c r="Z79" s="156"/>
+      <c r="AA79" s="156"/>
+      <c r="AB79" s="156"/>
+      <c r="AC79" s="156"/>
+      <c r="AD79" s="156"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A80" s="131" t="s">
+      <c r="A80" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="134">
+      <c r="B80" s="139">
         <v>2</v>
       </c>
-      <c r="C80" s="137" t="s">
+      <c r="C80" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="176">
+      <c r="D80" s="181">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="E80" s="151">
+      <c r="E80" s="156">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="F80" s="151">
+      <c r="F80" s="156">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="G80" s="151">
+      <c r="G80" s="156">
         <f>1*1</f>
         <v>1</v>
       </c>
-      <c r="H80" s="151">
+      <c r="H80" s="156">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="I80" s="151">
+      <c r="I80" s="156">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="J80" s="151">
+      <c r="J80" s="156">
         <f>1*3</f>
         <v>3</v>
       </c>
-      <c r="K80" s="151">
-        <v>0</v>
-      </c>
-      <c r="L80" s="151">
+      <c r="K80" s="156">
+        <v>0</v>
+      </c>
+      <c r="L80" s="156">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="M80" s="151">
+      <c r="M80" s="156">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="N80" s="151">
+      <c r="N80" s="156">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="O80" s="151">
+      <c r="O80" s="156">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="P80" s="151">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="151">
+      <c r="P80" s="156">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="156">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="R80" s="151">
+      <c r="R80" s="156">
         <f>1*1</f>
         <v>1</v>
       </c>
-      <c r="S80" s="151">
+      <c r="S80" s="156">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="T80" s="151">
+      <c r="T80" s="156">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="U80" s="151">
+      <c r="U80" s="156">
         <f>1*1</f>
         <v>1</v>
       </c>
-      <c r="V80" s="151">
+      <c r="V80" s="156">
         <f>2*1</f>
         <v>2</v>
       </c>
-      <c r="W80" s="151">
-        <v>0</v>
-      </c>
-      <c r="X80" s="151">
+      <c r="W80" s="156">
+        <v>0</v>
+      </c>
+      <c r="X80" s="156">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="Y80" s="151">
+      <c r="Y80" s="156">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="Z80" s="151">
+      <c r="Z80" s="156">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="AA80" s="151">
+      <c r="AA80" s="156">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="AB80" s="151">
+      <c r="AB80" s="156">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="AC80" s="151">
+      <c r="AC80" s="156">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="AD80" s="151">
+      <c r="AD80" s="156">
         <f>1*2</f>
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A81" s="133"/>
-      <c r="B81" s="136"/>
-      <c r="C81" s="139"/>
-      <c r="D81" s="176"/>
-      <c r="E81" s="151"/>
-      <c r="F81" s="151"/>
-      <c r="G81" s="151"/>
-      <c r="H81" s="151"/>
-      <c r="I81" s="151"/>
-      <c r="J81" s="151"/>
-      <c r="K81" s="151"/>
-      <c r="L81" s="151"/>
-      <c r="M81" s="151"/>
-      <c r="N81" s="151"/>
-      <c r="O81" s="151"/>
-      <c r="P81" s="151"/>
-      <c r="Q81" s="151"/>
-      <c r="R81" s="151"/>
-      <c r="S81" s="151"/>
-      <c r="T81" s="151"/>
-      <c r="U81" s="151"/>
-      <c r="V81" s="151"/>
-      <c r="W81" s="151"/>
-      <c r="X81" s="151"/>
-      <c r="Y81" s="151"/>
-      <c r="Z81" s="151"/>
-      <c r="AA81" s="151"/>
-      <c r="AB81" s="151"/>
-      <c r="AC81" s="151"/>
-      <c r="AD81" s="151"/>
+      <c r="A81" s="138"/>
+      <c r="B81" s="141"/>
+      <c r="C81" s="144"/>
+      <c r="D81" s="181"/>
+      <c r="E81" s="156"/>
+      <c r="F81" s="156"/>
+      <c r="G81" s="156"/>
+      <c r="H81" s="156"/>
+      <c r="I81" s="156"/>
+      <c r="J81" s="156"/>
+      <c r="K81" s="156"/>
+      <c r="L81" s="156"/>
+      <c r="M81" s="156"/>
+      <c r="N81" s="156"/>
+      <c r="O81" s="156"/>
+      <c r="P81" s="156"/>
+      <c r="Q81" s="156"/>
+      <c r="R81" s="156"/>
+      <c r="S81" s="156"/>
+      <c r="T81" s="156"/>
+      <c r="U81" s="156"/>
+      <c r="V81" s="156"/>
+      <c r="W81" s="156"/>
+      <c r="X81" s="156"/>
+      <c r="Y81" s="156"/>
+      <c r="Z81" s="156"/>
+      <c r="AA81" s="156"/>
+      <c r="AB81" s="156"/>
+      <c r="AC81" s="156"/>
+      <c r="AD81" s="156"/>
     </row>
     <row r="82" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="91" t="s">
+      <c r="A82" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="94">
+      <c r="B82" s="92">
         <v>2</v>
       </c>
-      <c r="C82" s="92" t="s">
+      <c r="C82" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="90">
+      <c r="D82" s="88">
         <f>2*1</f>
         <v>2</v>
       </c>
-      <c r="E82" s="89">
+      <c r="E82" s="87">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="F82" s="89">
+      <c r="F82" s="87">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="G82" s="95">
+      <c r="G82" s="93">
         <f>1*1</f>
         <v>1</v>
       </c>
-      <c r="H82" s="89">
+      <c r="H82" s="87">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="I82" s="89">
+      <c r="I82" s="87">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="J82" s="89">
+      <c r="J82" s="87">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="K82" s="89">
-        <v>0</v>
-      </c>
-      <c r="L82" s="89">
+      <c r="K82" s="87">
+        <v>0</v>
+      </c>
+      <c r="L82" s="87">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="M82" s="89">
+      <c r="M82" s="87">
         <f>2*3</f>
         <v>6</v>
       </c>
-      <c r="N82" s="89">
+      <c r="N82" s="87">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="O82" s="89">
-        <v>0</v>
-      </c>
-      <c r="P82" s="89">
+      <c r="O82" s="87">
+        <v>0</v>
+      </c>
+      <c r="P82" s="87">
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="Q82" s="89">
+      <c r="Q82" s="87">
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="R82" s="89">
-        <v>0</v>
-      </c>
-      <c r="S82" s="95">
+      <c r="R82" s="87">
+        <v>0</v>
+      </c>
+      <c r="S82" s="93">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="T82" s="89">
+      <c r="T82" s="87">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="U82" s="89">
-        <v>0</v>
-      </c>
-      <c r="V82" s="89">
-        <v>0</v>
-      </c>
-      <c r="W82" s="89">
+      <c r="U82" s="87">
+        <v>0</v>
+      </c>
+      <c r="V82" s="87">
+        <v>0</v>
+      </c>
+      <c r="W82" s="87">
         <f>1.5*3</f>
         <v>4.5</v>
       </c>
-      <c r="X82" s="89">
+      <c r="X82" s="87">
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="Y82" s="89">
+      <c r="Y82" s="87">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="Z82" s="89">
+      <c r="Z82" s="87">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="AA82" s="89">
+      <c r="AA82" s="87">
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="AB82" s="89">
+      <c r="AB82" s="87">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="AC82" s="89">
+      <c r="AC82" s="87">
         <f>1.5*3</f>
         <v>4.5</v>
       </c>
-      <c r="AD82" s="89">
+      <c r="AD82" s="87">
         <f>2*3</f>
         <v>6</v>
       </c>
@@ -10558,7 +10751,7 @@
         <f>3*8</f>
         <v>24</v>
       </c>
-      <c r="G83" s="110">
+      <c r="G83" s="108">
         <f>3.5*3</f>
         <v>10.5</v>
       </c>
@@ -10570,7 +10763,7 @@
         <f>3*7</f>
         <v>21</v>
       </c>
-      <c r="J83" s="110">
+      <c r="J83" s="108">
         <f>3*3</f>
         <v>9</v>
       </c>

--- a/Lista_kotara_u_Splitu.xlsx
+++ b/Lista_kotara_u_Splitu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Urbanism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A9820A-3813-4D7F-A509-D3E71E2795C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF9B7B-0CF9-4A35-94EC-62E6B5802EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FEFDD235-82CE-4D9F-86D9-D9DD3DA2A29E}"/>
   </bookViews>
@@ -1823,24 +1823,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="58" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1849,56 +1840,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="59" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="60" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1912,6 +1885,12 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1922,6 +1901,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
@@ -1954,29 +1939,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="58" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="59" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="60" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2490,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="109">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C6" s="109" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(19, ROW(A1) + 3, 4))</f>
@@ -2505,7 +2505,7 @@
         <v>125.5</v>
       </c>
       <c r="F6" s="109">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="109">
         <v>7</v>
@@ -2564,10 +2564,10 @@
         <v>6</v>
       </c>
       <c r="G7" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="1">
         <v>7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="N7" s="80">
         <f t="shared" ref="N7:N32" ca="1" si="0">SUM(B7:J7)-SUM(K7:M7)</f>
-        <v>179.57999999999998</v>
+        <v>178.07999999999998</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" ref="O7:O32" ca="1" si="1">RANK(N7,$N$6:$N$32)</f>
@@ -2617,10 +2617,10 @@
         <v>101.5</v>
       </c>
       <c r="F8" s="1">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H8" s="1">
         <v>7</v>
@@ -2636,14 +2636,14 @@
       </c>
       <c r="L8" s="1" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A3) + 3, 4))</f>
-        <v>0.58000000000000007</v>
+        <v>0.45</v>
       </c>
       <c r="M8" s="4">
         <v>1</v>
       </c>
       <c r="N8" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>193.22</v>
+        <v>193.35000000000002</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2785,13 +2785,13 @@
         <v>108.5</v>
       </c>
       <c r="F11" s="1">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H11" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1">
         <v>5</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="N11" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>199.55</v>
+        <v>197.55</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2844,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H12" s="1">
         <v>4</v>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="N12" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>121.20000000000002</v>
+        <v>120.70000000000002</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2882,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C13" s="1" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(19, ROW(A8) + 3, 4))</f>
@@ -2897,10 +2897,10 @@
         <v>27.5</v>
       </c>
       <c r="F13" s="1">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="G13" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H13" s="1">
         <v>4</v>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="N13" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>107.30000000000001</v>
+        <v>106.80000000000001</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" s="118" t="s">
         <v>9</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P14" s="118" t="s">
         <v>10</v>
@@ -3024,18 +3024,18 @@
         <v>5</v>
       </c>
       <c r="K15" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A10) + 3, 4))</f>
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="M15" s="4">
         <v>1.2</v>
       </c>
       <c r="N15" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>186.59</v>
+        <v>187.22</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3050,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C16" s="1" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(19, ROW(A11) + 3, 4))</f>
@@ -3065,10 +3065,10 @@
         <v>116</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G16" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H16" s="1">
         <v>6</v>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="N16" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>201.3</v>
+        <v>200.8</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3162,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C18" s="1" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(19, ROW(A13) + 3, 4))</f>
@@ -3177,7 +3177,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="1">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="1">
         <v>7</v>
@@ -3186,7 +3186,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1">
         <v>5.5</v>
@@ -3196,14 +3196,14 @@
       </c>
       <c r="L18" s="1" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A13) + 3, 4))</f>
-        <v>0.43</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="M18" s="4">
         <v>1</v>
       </c>
       <c r="N18" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>115.22</v>
+        <v>115.73</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3252,14 +3252,14 @@
       </c>
       <c r="L19" s="1" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A14) + 3, 4))</f>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M19" s="4">
         <v>1</v>
       </c>
       <c r="N19" s="80">
         <f ca="1">SUM(B19:J19)-SUM(K19:M19)</f>
-        <v>176.35</v>
+        <v>176.29999999999998</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="O21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21" s="118" t="s">
         <v>17</v>
@@ -3401,7 +3401,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G22" s="1">
         <v>7</v>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="N22" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>143.89999999999998</v>
+        <v>143.39999999999998</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="O23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P23" s="118" t="s">
         <v>19</v>
@@ -3569,7 +3569,7 @@
         <v>52</v>
       </c>
       <c r="F25" s="1">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G25" s="1">
         <v>7</v>
@@ -3578,28 +3578,28 @@
         <v>9</v>
       </c>
       <c r="I25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1">
         <v>5</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L25" s="1" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A20) + 3, 4))</f>
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="M25" s="4">
         <v>1</v>
       </c>
       <c r="N25" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>135.79000000000002</v>
+        <v>138.92000000000002</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P25" s="118" t="s">
         <v>21</v>
@@ -3609,7 +3609,7 @@
       <c r="A26" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="112">
+      <c r="B26" s="1">
         <v>8</v>
       </c>
       <c r="C26" s="112" cm="1">
@@ -3666,7 +3666,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C27" s="1" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(19, ROW(A22) + 3, 4))</f>
@@ -3680,11 +3680,11 @@
         <f t="array" aca="1" ref="E27" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(86, ROW(A22) + 3, 4))</f>
         <v>41.5</v>
       </c>
-      <c r="F27" s="1">
-        <v>6</v>
+      <c r="F27" s="112">
+        <v>6.5</v>
       </c>
       <c r="G27" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H27" s="1">
         <v>4</v>
@@ -3707,11 +3707,11 @@
       </c>
       <c r="N27" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>131.5</v>
+        <v>131</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P27" s="118" t="s">
         <v>23</v>
@@ -3812,14 +3812,14 @@
       </c>
       <c r="L29" s="1" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A24) + 3, 4))</f>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M29" s="4">
         <v>1</v>
       </c>
       <c r="N29" s="80">
         <f t="shared" ca="1" si="0"/>
-        <v>185.55</v>
+        <v>185.5</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3846,19 +3846,19 @@
       </c>
       <c r="E30" s="1" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(86, ROW(A25) + 3, 4))</f>
-        <v>32.5</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1">
         <v>4</v>
       </c>
       <c r="G30" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1">
         <v>6</v>
       </c>
       <c r="I30" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1">
         <v>4</v>
@@ -3875,11 +3875,11 @@
       </c>
       <c r="N30" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>89.5</v>
+        <v>110.5</v>
       </c>
       <c r="O30" s="101">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P30" s="118" t="s">
         <v>26</v>
@@ -3946,7 +3946,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C32" s="3" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(19, ROW(A27) + 3, 4))</f>
@@ -3976,18 +3976,18 @@
         <v>5</v>
       </c>
       <c r="K32" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L32" s="3" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">INDIRECT("'Pomoćni list'!" &amp; ADDRESS(41, ROW(A27) + 3, 4))</f>
-        <v>0.37</v>
+        <v>0.62</v>
       </c>
       <c r="M32" s="5">
         <v>1</v>
       </c>
       <c r="N32" s="81">
         <f t="shared" ca="1" si="0"/>
-        <v>112.68</v>
+        <v>112.43</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B6" s="30" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">Ocjene!B6/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(A1) - 1) &amp; $A$34)</f>
-        <v>1.0666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C6" s="30" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">Ocjene!C6/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(B1) - 1) &amp; $A$34)</f>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="F6" s="30" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">Ocjene!F6/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E1) - 1) &amp; $A$34)</f>
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G6" s="30" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">Ocjene!G6/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F1) - 1) &amp; $A$34)</f>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="N6" s="73">
         <f t="shared" ref="N6:N32" ca="1" si="0">SUM(B6:J6) - SUM(K6:M6)</f>
-        <v>23.207934541119517</v>
+        <v>23.212696445881424</v>
       </c>
       <c r="O6" s="72">
         <f ca="1">RANK(N6,$N$6:$N$32)</f>
@@ -4265,11 +4265,11 @@
       </c>
       <c r="G7" s="30" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">Ocjene!G7/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F2) - 1) &amp; $A$34)</f>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="H7" s="30" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">Ocjene!H7/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(G2) - 1) &amp; $A$34)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I7" s="30" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">Ocjene!I7/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(H2) - 1) &amp; $A$34)</f>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="N7" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>20.325589493183376</v>
+        <v>19.700589493183376</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" ref="O7:O32" ca="1" si="1">RANK(N7,$N$6:$N$32)</f>
@@ -4325,11 +4325,11 @@
       </c>
       <c r="F8" s="30" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">Ocjene!F8/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E3) - 1) &amp; $A$34)</f>
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G8" s="30" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">Ocjene!G8/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F3) - 1) &amp; $A$34)</f>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="H8" s="30" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">Ocjene!H8/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(G3) - 1) &amp; $A$34)</f>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="L8" s="30" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">Ocjene!L8/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(K3) - 1) &amp; $A$34)</f>
-        <v>0.77333333333333343</v>
+        <v>0.6</v>
       </c>
       <c r="M8" s="30" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">Ocjene!M8/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L3) - 1) &amp; $A$34)</f>
@@ -4357,11 +4357,11 @@
       </c>
       <c r="N8" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>20.933224997842522</v>
+        <v>21.052986902604427</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8" s="118" t="s">
         <v>4</v>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="O9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" s="118" t="s">
         <v>5</v>
@@ -4517,15 +4517,15 @@
       </c>
       <c r="F11" s="30" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">Ocjene!F11/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E6) - 1) &amp; $A$34)</f>
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G11" s="30" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">Ocjene!G11/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F6) - 1) &amp; $A$34)</f>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="H11" s="30" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">Ocjene!H11/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(G6) - 1) &amp; $A$34)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="30" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">Ocjene!I11/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(H6) - 1) &amp; $A$34)</f>
@@ -4549,11 +4549,11 @@
       </c>
       <c r="N11" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>21.706837900161965</v>
+        <v>20.653266471590538</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P11" s="118" t="s">
         <v>7</v>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="G12" s="30" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">Ocjene!G12/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F7) - 1) &amp; $A$34)</f>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="H12" s="30" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">Ocjene!H12/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(G7) - 1) &amp; $A$34)</f>
@@ -4613,11 +4613,11 @@
       </c>
       <c r="N12" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>12.906444988329552</v>
+        <v>12.781444988329552</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="118" t="s">
         <v>8</v>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B13" s="30" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">Ocjene!B13/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(A8) - 1) &amp; $A$34)</f>
-        <v>1.0666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C13" s="30" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">Ocjene!C13/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(B8) - 1) &amp; $A$34)</f>
@@ -4645,11 +4645,11 @@
       </c>
       <c r="F13" s="30" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">Ocjene!F13/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E8) - 1) &amp; $A$34)</f>
-        <v>0.8571428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G13" s="30" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">Ocjene!G13/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F8) - 1) &amp; $A$34)</f>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="H13" s="30" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">Ocjene!H13/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(G8) - 1) &amp; $A$34)</f>
@@ -4677,11 +4677,11 @@
       </c>
       <c r="N13" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>11.967191535863302</v>
+        <v>11.846953440625207</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13" s="118" t="s">
         <v>9</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P14" s="118" t="s">
         <v>10</v>
@@ -4793,11 +4793,11 @@
       </c>
       <c r="K15" s="30" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">Ocjene!K15/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(J10) - 1) &amp; $A$34)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="30" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">Ocjene!L15/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(K10) - 1) &amp; $A$34)</f>
-        <v>0.68</v>
+        <v>0.50666666666666671</v>
       </c>
       <c r="M15" s="30" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">Ocjene!M15/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L10) - 1) &amp; $A$34)</f>
@@ -4805,11 +4805,11 @@
       </c>
       <c r="N15" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>21.140600601685438</v>
+        <v>21.363933935018771</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" s="118" t="s">
         <v>11</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B16" s="30" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">Ocjene!B16/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(A11) - 1) &amp; $A$34)</f>
-        <v>1.0666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C16" s="30" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">Ocjene!C16/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(B11) - 1) &amp; $A$34)</f>
@@ -4837,11 +4837,11 @@
       </c>
       <c r="F16" s="30" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">Ocjene!F16/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E11) - 1) &amp; $A$34)</f>
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G16" s="30" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">Ocjene!G16/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F11) - 1) &amp; $A$34)</f>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="H16" s="30" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">Ocjene!H16/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(G11) - 1) &amp; $A$34)</f>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="N16" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>21.360415801166841</v>
+        <v>21.240177705928744</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P17" s="118" t="s">
         <v>13</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="B18" s="30" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">Ocjene!B18/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(A13) - 1) &amp; $A$34)</f>
-        <v>1.0666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C18" s="30" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">Ocjene!C18/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(B13) - 1) &amp; $A$34)</f>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="F18" s="30" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">Ocjene!F18/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E13) - 1) &amp; $A$34)</f>
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G18" s="30" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">Ocjene!G18/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F13) - 1) &amp; $A$34)</f>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="I18" s="30" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">Ocjene!I18/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(H13) - 1) &amp; $A$34)</f>
-        <v>1.8333333333333333</v>
+        <v>2</v>
       </c>
       <c r="J18" s="30" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">Ocjene!J18/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(I13) - 1) &amp; $A$34)</f>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="L18" s="30" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">Ocjene!L18/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(K13) - 1) &amp; $A$34)</f>
-        <v>0.57333333333333336</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M18" s="30" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">Ocjene!M18/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L13) - 1) &amp; $A$34)</f>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="N18" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>16.098169997210331</v>
+        <v>16.282931901972237</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="L19" s="30" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">Ocjene!L19/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(K14) - 1) &amp; $A$34)</f>
-        <v>0.66666666666666663</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="M19" s="30" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">Ocjene!M19/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L14) - 1) &amp; $A$34)</f>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="N19" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>20.608237752048598</v>
+        <v>20.541571085381932</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="F22" s="30" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">Ocjene!F22/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E17) - 1) &amp; $A$34)</f>
-        <v>0.8571428571428571</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G22" s="30" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">Ocjene!G22/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F17) - 1) &amp; $A$34)</f>
@@ -5253,11 +5253,11 @@
       </c>
       <c r="N22" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>16.880022558186678</v>
+        <v>16.808593986758105</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P22" s="118" t="s">
         <v>18</v>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F25" s="30" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">Ocjene!F25/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E20) - 1) &amp; $A$34)</f>
-        <v>0.7142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G25" s="30" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">Ocjene!G25/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F20) - 1) &amp; $A$34)</f>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="I25" s="30" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">Ocjene!I25/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(H20) - 1) &amp; $A$34)</f>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J25" s="30" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">Ocjene!J25/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(I20) - 1) &amp; $A$34)</f>
@@ -5433,11 +5433,11 @@
       </c>
       <c r="K25" s="30" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">Ocjene!K25/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(J20) - 1) &amp; $A$34)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="L25" s="30" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">Ocjene!L25/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(K20) - 1) &amp; $A$34)</f>
-        <v>0.68</v>
+        <v>0.50666666666666671</v>
       </c>
       <c r="M25" s="30" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">Ocjene!M25/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L20) - 1) &amp; $A$34)</f>
@@ -5445,11 +5445,11 @@
       </c>
       <c r="N25" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>16.085434194919589</v>
+        <v>17.280196099681497</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P25" s="118" t="s">
         <v>21</v>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B27" s="30" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">Ocjene!B27/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(A22) - 1) &amp; $A$34)</f>
-        <v>1.0666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C27" s="30" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">Ocjene!C27/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(B22) - 1) &amp; $A$34)</f>
@@ -5541,11 +5541,11 @@
       </c>
       <c r="F27" s="30" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">Ocjene!F27/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E22) - 1) &amp; $A$34)</f>
-        <v>0.8571428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G27" s="30" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">Ocjene!G27/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F22) - 1) &amp; $A$34)</f>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="H27" s="30" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">Ocjene!H27/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(G22) - 1) &amp; $A$34)</f>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="N27" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>14.302702767793171</v>
+        <v>14.182464672555076</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="L29" s="30" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">Ocjene!L29/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(K24) - 1) &amp; $A$34)</f>
-        <v>0.66666666666666663</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="M29" s="30" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">Ocjene!M29/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L24) - 1) &amp; $A$34)</f>
@@ -5701,11 +5701,11 @@
       </c>
       <c r="N29" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>20.721143583660965</v>
+        <v>20.654476916994298</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P29" s="118" t="s">
         <v>25</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="E30" s="30" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">Ocjene!E30/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(D25) - 1) &amp; $A$34)</f>
-        <v>2.9545454545454546</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="F30" s="30" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">Ocjene!F30/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(E25) - 1) &amp; $A$34)</f>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="G30" s="30" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">Ocjene!G30/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(F25) - 1) &amp; $A$34)</f>
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="H30" s="30" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">Ocjene!H30/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(G25) - 1) &amp; $A$34)</f>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="I30" s="30" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">Ocjene!I30/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(H25) - 1) &amp; $A$34)</f>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="J30" s="30" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">Ocjene!J30/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(I25) - 1) &amp; $A$34)</f>
@@ -5765,11 +5765,11 @@
       </c>
       <c r="N30" s="74">
         <f t="shared" ca="1" si="0"/>
-        <v>10.44797603493709</v>
+        <v>13.247218459179516</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P30" s="118" t="s">
         <v>26</v>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="B32" s="33" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">Ocjene!B32/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(A27) - 1) &amp; $A$34)</f>
-        <v>1.0666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C32" s="31" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">Ocjene!C32/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(B27) - 1) &amp; $A$34)</f>
@@ -5881,11 +5881,11 @@
       </c>
       <c r="K32" s="31" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">Ocjene!K32/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(J27) - 1) &amp; $A$34)</f>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="L32" s="31" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">Ocjene!L32/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(K27) - 1) &amp; $A$34)</f>
-        <v>0.49333333333333335</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="M32" s="32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">Ocjene!M32/INDIRECT("Ocjene!" &amp; CHAR(66 + COLUMN(L27) - 1) &amp; $A$34)</f>
@@ -5893,11 +5893,11 @@
       </c>
       <c r="N32" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>11.760250789235489</v>
+        <v>11.410250789235489</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P32" s="121" t="s">
         <v>28</v>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B6" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B6:J6) / PRODUCT('Normalizirane vrijednosti'!K6:M6)</f>
-        <v>3883.1539003073535</v>
+        <v>3971.4073980416115</v>
       </c>
       <c r="C6" s="4">
         <f ca="1">RANK(B6,B$6:B$32)</f>
@@ -6014,11 +6014,11 @@
       </c>
       <c r="B7" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B7:J7) / PRODUCT('Normalizirane vrijednosti'!K7:M7)</f>
-        <v>4199.6630186894445</v>
+        <v>3412.226202685174</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:C32" ca="1" si="0">RANK(B7,B$6:B$32)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -6027,11 +6027,11 @@
       </c>
       <c r="B8" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B8:J8) / PRODUCT('Normalizirane vrijednosti'!K8:M8)</f>
-        <v>3525.7215954944272</v>
+        <v>4603.2797974074429</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -6066,11 +6066,11 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B11:J11) / PRODUCT('Normalizirane vrijednosti'!K11:M11)</f>
-        <v>3974.4272165845337</v>
+        <v>3019.5323658466905</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B12" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B12:J12) / PRODUCT('Normalizirane vrijednosti'!K12:M12)</f>
-        <v>272.18049760469785</v>
+        <v>252.73903349007657</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B13" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B13:J13) / PRODUCT('Normalizirane vrijednosti'!K13:M13)</f>
-        <v>239.52459223669231</v>
+        <v>225.89093799107701</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -6118,11 +6118,11 @@
       </c>
       <c r="B15" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B15:J15) / PRODUCT('Normalizirane vrijednosti'!K15:M15)</f>
-        <v>1748.989812779693</v>
+        <v>2934.1605411764585</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -6131,11 +6131,11 @@
       </c>
       <c r="B16" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B16:J16) / PRODUCT('Normalizirane vrijednosti'!K16:M16)</f>
-        <v>1511.2707042609686</v>
+        <v>1480.0670122645092</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6157,11 +6157,11 @@
       </c>
       <c r="B18" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B18:J18) / PRODUCT('Normalizirane vrijednosti'!K18:M18)</f>
-        <v>1424.5320439126069</v>
+        <v>1627.1956936073759</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B19" s="104">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B19:J19) / PRODUCT('Normalizirane vrijednosti'!K19:M19)</f>
-        <v>5154.4766159508845</v>
+        <v>4685.8878326826216</v>
       </c>
       <c r="C19" s="105">
         <f t="shared" ca="1" si="0"/>
@@ -6209,11 +6209,11 @@
       </c>
       <c r="B22" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B22:J22) / PRODUCT('Normalizirane vrijednosti'!K22:M22)</f>
-        <v>2532.8319510980614</v>
+        <v>2321.7626218398896</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6248,11 +6248,11 @@
       </c>
       <c r="B25" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B25:J25) / PRODUCT('Normalizirane vrijednosti'!K25:M25)</f>
-        <v>1839.2218015878327</v>
+        <v>4525.4536433805888</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="B27" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B27:J27) / PRODUCT('Normalizirane vrijednosti'!K27:M27)</f>
-        <v>1359.3991655076493</v>
+        <v>1282.022650506656</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -6300,11 +6300,11 @@
       </c>
       <c r="B29" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B29:J29) / PRODUCT('Normalizirane vrijednosti'!K29:M29)</f>
-        <v>4532.5778258555256</v>
+        <v>4120.5252962322957</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="B30" s="45">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B30:J30) / PRODUCT('Normalizirane vrijednosti'!K30:M30)</f>
-        <v>12.540075011099582</v>
+        <v>53.425171644921292</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6339,11 +6339,11 @@
       </c>
       <c r="B32" s="46">
         <f ca="1">PRODUCT('Normalizirane vrijednosti'!B32:J32) / PRODUCT('Normalizirane vrijednosti'!K32:M32)</f>
-        <v>91.492949220184755</v>
+        <v>54.3873472714493</v>
       </c>
       <c r="C32" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6384,11 +6384,11 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
@@ -7890,121 +7890,121 @@
     </row>
     <row r="20" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>1</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="162"/>
+      <c r="C22" s="155"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>2</v>
       </c>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="133"/>
+      <c r="C23" s="153"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>3</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="133"/>
+      <c r="C24" s="153"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="133"/>
+      <c r="C25" s="153"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="133"/>
+      <c r="C26" s="153"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="146"/>
+      <c r="C27" s="159"/>
     </row>
     <row r="28" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="161" t="s">
+      <c r="B30" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="162"/>
+      <c r="C30" s="155"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="133"/>
+      <c r="C31" s="153"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="133"/>
+      <c r="C32" s="153"/>
     </row>
     <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="145" t="s">
+      <c r="B33" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="146"/>
+      <c r="C33" s="159"/>
     </row>
     <row r="34" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
     </row>
     <row r="35" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="164"/>
-      <c r="C35" s="164"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
     </row>
     <row r="36" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
@@ -8237,7 +8237,7 @@
         <v>0.25</v>
       </c>
       <c r="P38" s="24">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0.25</v>
@@ -8331,8 +8331,8 @@
       <c r="P39">
         <v>0.25</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
+      <c r="Q39" s="24">
+        <v>0.05</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -8361,8 +8361,8 @@
       <c r="Z39">
         <v>0</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
+      <c r="AA39" s="24">
+        <v>0.05</v>
       </c>
       <c r="AB39">
         <v>0.5</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -8476,16 +8476,16 @@
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="12">
-        <f>SUM(D37:D40)</f>
+        <f t="shared" ref="D41:AD41" si="2">SUM(D37:D40)</f>
         <v>0.63</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" ref="E41:AD41" si="2">SUM(E37:E40)</f>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="F41" s="12">
         <f t="shared" si="2"/>
-        <v>0.58000000000000007</v>
+        <v>0.45</v>
       </c>
       <c r="G41" s="12">
         <f t="shared" si="2"/>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="M41" s="12">
         <f t="shared" si="2"/>
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="N41" s="12">
         <f t="shared" si="2"/>
@@ -8525,11 +8525,11 @@
       </c>
       <c r="P41" s="12">
         <f t="shared" si="2"/>
-        <v>0.43</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="Q41" s="12">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R41" s="12">
         <f t="shared" si="2"/>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="W41" s="12">
         <f t="shared" si="2"/>
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="X41" s="12">
         <f t="shared" si="2"/>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="AA41" s="12">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB41" s="12">
         <f t="shared" si="2"/>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="AD41" s="12">
         <f t="shared" si="2"/>
-        <v>0.37</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8617,11 +8617,11 @@
       <c r="AD42" s="12"/>
     </row>
     <row r="43" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="167" t="s">
+      <c r="A43" s="162" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
     </row>
     <row r="44" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="67" t="s">
@@ -8722,7 +8722,7 @@
       <c r="B45" s="18">
         <v>20</v>
       </c>
-      <c r="C45" s="169" t="s">
+      <c r="C45" s="164" t="s">
         <v>92</v>
       </c>
       <c r="D45">
@@ -8841,7 +8841,7 @@
       <c r="B46" s="19">
         <v>15</v>
       </c>
-      <c r="C46" s="170"/>
+      <c r="C46" s="165"/>
       <c r="D46">
         <f>B46-3</f>
         <v>12</v>
@@ -8958,7 +8958,7 @@
       <c r="B47" s="19">
         <v>8</v>
       </c>
-      <c r="C47" s="170"/>
+      <c r="C47" s="165"/>
       <c r="D47">
         <f>B47-4.5</f>
         <v>3.5</v>
@@ -9074,7 +9074,7 @@
       <c r="B48" s="19">
         <v>5</v>
       </c>
-      <c r="C48" s="170"/>
+      <c r="C48" s="165"/>
       <c r="D48">
         <f>B48-1.6</f>
         <v>3.4</v>
@@ -9191,7 +9191,7 @@
       <c r="B49" s="19">
         <v>7</v>
       </c>
-      <c r="C49" s="170"/>
+      <c r="C49" s="165"/>
       <c r="D49">
         <f>B49-4.3</f>
         <v>2.7</v>
@@ -9308,7 +9308,7 @@
       <c r="B50" s="19">
         <v>7</v>
       </c>
-      <c r="C50" s="170"/>
+      <c r="C50" s="165"/>
       <c r="D50" s="26">
         <f>B50-5.7</f>
         <v>1.2999999999999998</v>
@@ -9425,7 +9425,7 @@
       <c r="B51" s="19">
         <v>6</v>
       </c>
-      <c r="C51" s="171"/>
+      <c r="C51" s="166"/>
       <c r="D51">
         <f>B51-0.55</f>
         <v>5.45</v>
@@ -9654,62 +9654,62 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="131" t="s">
+      <c r="H53" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="Z53" s="131" t="s">
+      <c r="Z53" s="147" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="131"/>
-      <c r="Z54" s="131"/>
+      <c r="H54" s="147"/>
+      <c r="Z54" s="147"/>
     </row>
     <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="172" t="s">
+      <c r="A55" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="173"/>
-      <c r="C55" s="173"/>
-      <c r="H55" s="131"/>
-      <c r="Z55" s="131"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="H55" s="147"/>
+      <c r="Z55" s="147"/>
     </row>
     <row r="56" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="161" t="s">
+      <c r="B56" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="162"/>
-      <c r="Z56" s="131"/>
+      <c r="C56" s="155"/>
+      <c r="Z56" s="147"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="132" t="s">
+      <c r="B57" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="133"/>
+      <c r="C57" s="153"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="133"/>
+      <c r="C58" s="153"/>
     </row>
     <row r="59" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="145" t="s">
+      <c r="B59" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="146"/>
+      <c r="C59" s="159"/>
     </row>
     <row r="60" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="91"/>
@@ -9717,53 +9717,53 @@
       <c r="C60" s="86"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="134" t="s">
+      <c r="A61" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="135"/>
-      <c r="C61" s="135"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="171"/>
     </row>
     <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="147" t="s">
+      <c r="A62" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="148"/>
-      <c r="C62" s="149"/>
+      <c r="B62" s="175"/>
+      <c r="C62" s="176"/>
     </row>
     <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="150"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="152"/>
+      <c r="A63" s="177"/>
+      <c r="B63" s="178"/>
+      <c r="C63" s="179"/>
       <c r="D63" s="115"/>
     </row>
     <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="150"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="152"/>
+      <c r="A64" s="177"/>
+      <c r="B64" s="178"/>
+      <c r="C64" s="179"/>
       <c r="D64" s="115"/>
     </row>
     <row r="65" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="150"/>
-      <c r="B65" s="151"/>
-      <c r="C65" s="152"/>
+      <c r="A65" s="177"/>
+      <c r="B65" s="178"/>
+      <c r="C65" s="179"/>
       <c r="D65" s="115"/>
-      <c r="Z65" s="131" t="s">
+      <c r="Z65" s="147" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" s="150"/>
-      <c r="B66" s="151"/>
-      <c r="C66" s="152"/>
+      <c r="A66" s="177"/>
+      <c r="B66" s="178"/>
+      <c r="C66" s="179"/>
       <c r="D66" s="115"/>
-      <c r="Z66" s="131"/>
+      <c r="Z66" s="147"/>
     </row>
     <row r="67" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="153"/>
-      <c r="B67" s="154"/>
-      <c r="C67" s="155"/>
+      <c r="A67" s="180"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="182"/>
       <c r="D67" s="115"/>
-      <c r="Z67" s="131"/>
+      <c r="Z67" s="147"/>
     </row>
     <row r="68" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="67" t="s">
@@ -9964,8 +9964,8 @@
         <v>35</v>
       </c>
       <c r="AB69" s="62">
-        <f>4.5*1+2.5*1</f>
-        <v>7</v>
+        <f>4.5*2+2.5*3</f>
+        <v>16.5</v>
       </c>
       <c r="AC69" s="61">
         <f>4.5*8</f>
@@ -9977,643 +9977,643 @@
       </c>
     </row>
     <row r="70" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="136" t="s">
+      <c r="A70" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="139">
+      <c r="B70" s="136">
         <v>3</v>
       </c>
-      <c r="C70" s="142" t="s">
+      <c r="C70" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="181">
+      <c r="D70" s="133">
         <f>3*4</f>
         <v>12</v>
       </c>
-      <c r="E70" s="156">
+      <c r="E70" s="131">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="F70" s="156">
+      <c r="F70" s="131">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="G70" s="156">
+      <c r="G70" s="131">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="H70" s="156">
+      <c r="H70" s="131">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="I70" s="156">
+      <c r="I70" s="131">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="J70" s="156">
+      <c r="J70" s="131">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="K70" s="156">
+      <c r="K70" s="131">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="L70" s="156">
+      <c r="L70" s="131">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="M70" s="156">
+      <c r="M70" s="131">
         <f>3*5</f>
         <v>15</v>
       </c>
-      <c r="N70" s="156">
+      <c r="N70" s="131">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="O70" s="156">
-        <v>0</v>
-      </c>
-      <c r="P70" s="156">
+      <c r="O70" s="131">
+        <v>0</v>
+      </c>
+      <c r="P70" s="131">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="Q70" s="156">
+      <c r="Q70" s="131">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="R70" s="156">
+      <c r="R70" s="131">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="S70" s="156">
+      <c r="S70" s="131">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="T70" s="156">
+      <c r="T70" s="131">
         <f>3*2</f>
         <v>6</v>
       </c>
-      <c r="U70" s="156">
+      <c r="U70" s="131">
         <f>3*1</f>
         <v>3</v>
       </c>
-      <c r="V70" s="156">
-        <v>0</v>
-      </c>
-      <c r="W70" s="156">
+      <c r="V70" s="131">
+        <v>0</v>
+      </c>
+      <c r="W70" s="131">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="X70" s="156">
+      <c r="X70" s="131">
         <f>3*4</f>
         <v>12</v>
       </c>
-      <c r="Y70" s="156">
+      <c r="Y70" s="131">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="Z70" s="156">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="156">
+      <c r="Z70" s="131">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="131">
         <f>3*4</f>
         <v>12</v>
       </c>
-      <c r="AB70" s="182">
-        <f>2.5*1+1.5*2</f>
-        <v>5.5</v>
-      </c>
-      <c r="AC70" s="156">
+      <c r="AB70" s="132">
+        <f>2.5*2+1.5*1</f>
+        <v>6.5</v>
+      </c>
+      <c r="AC70" s="131">
         <f>2.5*3</f>
         <v>7.5</v>
       </c>
-      <c r="AD70" s="156">
+      <c r="AD70" s="131">
         <f>2.5*2</f>
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" s="137"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="143"/>
-      <c r="D71" s="181"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="156"/>
-      <c r="K71" s="156"/>
-      <c r="L71" s="156"/>
-      <c r="M71" s="156"/>
-      <c r="N71" s="156"/>
-      <c r="O71" s="156"/>
-      <c r="P71" s="156"/>
-      <c r="Q71" s="156"/>
-      <c r="R71" s="156"/>
-      <c r="S71" s="156"/>
-      <c r="T71" s="156"/>
-      <c r="U71" s="156"/>
-      <c r="V71" s="156"/>
-      <c r="W71" s="156"/>
-      <c r="X71" s="156"/>
-      <c r="Y71" s="156"/>
-      <c r="Z71" s="156"/>
-      <c r="AA71" s="156"/>
-      <c r="AB71" s="182"/>
-      <c r="AC71" s="156"/>
-      <c r="AD71" s="156"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="172"/>
+      <c r="C71" s="173"/>
+      <c r="D71" s="133"/>
+      <c r="E71" s="131"/>
+      <c r="F71" s="131"/>
+      <c r="G71" s="131"/>
+      <c r="H71" s="131"/>
+      <c r="I71" s="131"/>
+      <c r="J71" s="131"/>
+      <c r="K71" s="131"/>
+      <c r="L71" s="131"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="131"/>
+      <c r="O71" s="131"/>
+      <c r="P71" s="131"/>
+      <c r="Q71" s="131"/>
+      <c r="R71" s="131"/>
+      <c r="S71" s="131"/>
+      <c r="T71" s="131"/>
+      <c r="U71" s="131"/>
+      <c r="V71" s="131"/>
+      <c r="W71" s="131"/>
+      <c r="X71" s="131"/>
+      <c r="Y71" s="131"/>
+      <c r="Z71" s="131"/>
+      <c r="AA71" s="131"/>
+      <c r="AB71" s="132"/>
+      <c r="AC71" s="131"/>
+      <c r="AD71" s="131"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A72" s="138"/>
-      <c r="B72" s="141"/>
-      <c r="C72" s="144"/>
-      <c r="D72" s="181"/>
-      <c r="E72" s="156"/>
-      <c r="F72" s="156"/>
-      <c r="G72" s="156"/>
-      <c r="H72" s="156"/>
-      <c r="I72" s="156"/>
-      <c r="J72" s="156"/>
-      <c r="K72" s="156"/>
-      <c r="L72" s="156"/>
-      <c r="M72" s="156"/>
-      <c r="N72" s="156"/>
-      <c r="O72" s="156"/>
-      <c r="P72" s="156"/>
-      <c r="Q72" s="156"/>
-      <c r="R72" s="156"/>
-      <c r="S72" s="156"/>
-      <c r="T72" s="156"/>
-      <c r="U72" s="156"/>
-      <c r="V72" s="156"/>
-      <c r="W72" s="156"/>
-      <c r="X72" s="156"/>
-      <c r="Y72" s="156"/>
-      <c r="Z72" s="156"/>
-      <c r="AA72" s="156"/>
-      <c r="AB72" s="182"/>
-      <c r="AC72" s="156"/>
-      <c r="AD72" s="156"/>
+      <c r="A72" s="135"/>
+      <c r="B72" s="137"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="131"/>
+      <c r="G72" s="131"/>
+      <c r="H72" s="131"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="131"/>
+      <c r="K72" s="131"/>
+      <c r="L72" s="131"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="131"/>
+      <c r="O72" s="131"/>
+      <c r="P72" s="131"/>
+      <c r="Q72" s="131"/>
+      <c r="R72" s="131"/>
+      <c r="S72" s="131"/>
+      <c r="T72" s="131"/>
+      <c r="U72" s="131"/>
+      <c r="V72" s="131"/>
+      <c r="W72" s="131"/>
+      <c r="X72" s="131"/>
+      <c r="Y72" s="131"/>
+      <c r="Z72" s="131"/>
+      <c r="AA72" s="131"/>
+      <c r="AB72" s="132"/>
+      <c r="AC72" s="131"/>
+      <c r="AD72" s="131"/>
     </row>
     <row r="73" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="136" t="s">
+      <c r="A73" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="175">
+      <c r="B73" s="141">
         <v>3</v>
       </c>
-      <c r="C73" s="178" t="s">
+      <c r="C73" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="181">
+      <c r="D73" s="133">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="E73" s="156">
+      <c r="E73" s="131">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="F73" s="156">
+      <c r="F73" s="131">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="G73" s="156">
+      <c r="G73" s="131">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="H73" s="156">
+      <c r="H73" s="131">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="I73" s="156">
+      <c r="I73" s="131">
         <f>3*5</f>
         <v>15</v>
       </c>
-      <c r="J73" s="156">
+      <c r="J73" s="131">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="K73" s="156">
+      <c r="K73" s="131">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="L73" s="156">
+      <c r="L73" s="131">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="M73" s="156">
+      <c r="M73" s="131">
         <f>3*2</f>
         <v>6</v>
       </c>
-      <c r="N73" s="156">
+      <c r="N73" s="131">
         <f>2.5*5</f>
         <v>12.5</v>
       </c>
-      <c r="O73" s="156">
+      <c r="O73" s="131">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="P73" s="156">
+      <c r="P73" s="131">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="Q73" s="156">
+      <c r="Q73" s="131">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="R73" s="156">
+      <c r="R73" s="131">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
-      <c r="S73" s="156">
+      <c r="S73" s="131">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="T73" s="156">
+      <c r="T73" s="131">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="U73" s="156">
+      <c r="U73" s="131">
         <f>3*1</f>
         <v>3</v>
       </c>
-      <c r="V73" s="156">
+      <c r="V73" s="131">
         <f>3*1</f>
         <v>3</v>
       </c>
-      <c r="W73" s="156">
+      <c r="W73" s="131">
         <f>2.5*2</f>
         <v>5</v>
       </c>
-      <c r="X73" s="156">
+      <c r="X73" s="131">
         <f>3*5</f>
         <v>15</v>
       </c>
-      <c r="Y73" s="156">
+      <c r="Y73" s="131">
         <f>2.5*4</f>
         <v>10</v>
       </c>
-      <c r="Z73" s="156">
+      <c r="Z73" s="131">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="AA73" s="156">
+      <c r="AA73" s="131">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="AB73" s="156">
-        <f>1.5*5</f>
-        <v>7.5</v>
-      </c>
-      <c r="AC73" s="156">
+      <c r="AB73" s="131">
+        <f>1.5*6</f>
+        <v>9</v>
+      </c>
+      <c r="AC73" s="131">
         <f>2.5*3</f>
         <v>7.5</v>
       </c>
-      <c r="AD73" s="156">
+      <c r="AD73" s="131">
         <f>2.5*1</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A74" s="137"/>
-      <c r="B74" s="176"/>
-      <c r="C74" s="179"/>
-      <c r="D74" s="181"/>
-      <c r="E74" s="156"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="156"/>
-      <c r="H74" s="156"/>
-      <c r="I74" s="156"/>
-      <c r="J74" s="156"/>
-      <c r="K74" s="156"/>
-      <c r="L74" s="156"/>
-      <c r="M74" s="156"/>
-      <c r="N74" s="156"/>
-      <c r="O74" s="156"/>
-      <c r="P74" s="156"/>
-      <c r="Q74" s="156"/>
-      <c r="R74" s="156"/>
-      <c r="S74" s="156"/>
-      <c r="T74" s="156"/>
-      <c r="U74" s="156"/>
-      <c r="V74" s="156"/>
-      <c r="W74" s="156"/>
-      <c r="X74" s="156"/>
-      <c r="Y74" s="156"/>
-      <c r="Z74" s="156"/>
-      <c r="AA74" s="156"/>
-      <c r="AB74" s="156"/>
-      <c r="AC74" s="156"/>
-      <c r="AD74" s="156"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="133"/>
+      <c r="E74" s="131"/>
+      <c r="F74" s="131"/>
+      <c r="G74" s="131"/>
+      <c r="H74" s="131"/>
+      <c r="I74" s="131"/>
+      <c r="J74" s="131"/>
+      <c r="K74" s="131"/>
+      <c r="L74" s="131"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="131"/>
+      <c r="O74" s="131"/>
+      <c r="P74" s="131"/>
+      <c r="Q74" s="131"/>
+      <c r="R74" s="131"/>
+      <c r="S74" s="131"/>
+      <c r="T74" s="131"/>
+      <c r="U74" s="131"/>
+      <c r="V74" s="131"/>
+      <c r="W74" s="131"/>
+      <c r="X74" s="131"/>
+      <c r="Y74" s="131"/>
+      <c r="Z74" s="131"/>
+      <c r="AA74" s="131"/>
+      <c r="AB74" s="131"/>
+      <c r="AC74" s="131"/>
+      <c r="AD74" s="131"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A75" s="137"/>
-      <c r="B75" s="176"/>
-      <c r="C75" s="179"/>
-      <c r="D75" s="181"/>
-      <c r="E75" s="156"/>
-      <c r="F75" s="156"/>
-      <c r="G75" s="156"/>
-      <c r="H75" s="156"/>
-      <c r="I75" s="156"/>
-      <c r="J75" s="156"/>
-      <c r="K75" s="156"/>
-      <c r="L75" s="156"/>
-      <c r="M75" s="156"/>
-      <c r="N75" s="156"/>
-      <c r="O75" s="156"/>
-      <c r="P75" s="156"/>
-      <c r="Q75" s="156"/>
-      <c r="R75" s="156"/>
-      <c r="S75" s="156"/>
-      <c r="T75" s="156"/>
-      <c r="U75" s="156"/>
-      <c r="V75" s="156"/>
-      <c r="W75" s="156"/>
-      <c r="X75" s="156"/>
-      <c r="Y75" s="156"/>
-      <c r="Z75" s="156"/>
-      <c r="AA75" s="156"/>
-      <c r="AB75" s="156"/>
-      <c r="AC75" s="156"/>
-      <c r="AD75" s="156"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="133"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="131"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="131"/>
+      <c r="L75" s="131"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
+      <c r="O75" s="131"/>
+      <c r="P75" s="131"/>
+      <c r="Q75" s="131"/>
+      <c r="R75" s="131"/>
+      <c r="S75" s="131"/>
+      <c r="T75" s="131"/>
+      <c r="U75" s="131"/>
+      <c r="V75" s="131"/>
+      <c r="W75" s="131"/>
+      <c r="X75" s="131"/>
+      <c r="Y75" s="131"/>
+      <c r="Z75" s="131"/>
+      <c r="AA75" s="131"/>
+      <c r="AB75" s="131"/>
+      <c r="AC75" s="131"/>
+      <c r="AD75" s="131"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A76" s="137"/>
-      <c r="B76" s="176"/>
-      <c r="C76" s="179"/>
-      <c r="D76" s="181"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="156"/>
-      <c r="J76" s="156"/>
-      <c r="K76" s="156"/>
-      <c r="L76" s="156"/>
-      <c r="M76" s="156"/>
-      <c r="N76" s="156"/>
-      <c r="O76" s="156"/>
-      <c r="P76" s="156"/>
-      <c r="Q76" s="156"/>
-      <c r="R76" s="156"/>
-      <c r="S76" s="156"/>
-      <c r="T76" s="156"/>
-      <c r="U76" s="156"/>
-      <c r="V76" s="156"/>
-      <c r="W76" s="156"/>
-      <c r="X76" s="156"/>
-      <c r="Y76" s="156"/>
-      <c r="Z76" s="156"/>
-      <c r="AA76" s="156"/>
-      <c r="AB76" s="156"/>
-      <c r="AC76" s="156"/>
-      <c r="AD76" s="156"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="131"/>
+      <c r="F76" s="131"/>
+      <c r="G76" s="131"/>
+      <c r="H76" s="131"/>
+      <c r="I76" s="131"/>
+      <c r="J76" s="131"/>
+      <c r="K76" s="131"/>
+      <c r="L76" s="131"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="131"/>
+      <c r="O76" s="131"/>
+      <c r="P76" s="131"/>
+      <c r="Q76" s="131"/>
+      <c r="R76" s="131"/>
+      <c r="S76" s="131"/>
+      <c r="T76" s="131"/>
+      <c r="U76" s="131"/>
+      <c r="V76" s="131"/>
+      <c r="W76" s="131"/>
+      <c r="X76" s="131"/>
+      <c r="Y76" s="131"/>
+      <c r="Z76" s="131"/>
+      <c r="AA76" s="131"/>
+      <c r="AB76" s="131"/>
+      <c r="AC76" s="131"/>
+      <c r="AD76" s="131"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A77" s="137"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="179"/>
-      <c r="D77" s="181"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
-      <c r="J77" s="156"/>
-      <c r="K77" s="156"/>
-      <c r="L77" s="156"/>
-      <c r="M77" s="156"/>
-      <c r="N77" s="156"/>
-      <c r="O77" s="156"/>
-      <c r="P77" s="156"/>
-      <c r="Q77" s="156"/>
-      <c r="R77" s="156"/>
-      <c r="S77" s="156"/>
-      <c r="T77" s="156"/>
-      <c r="U77" s="156"/>
-      <c r="V77" s="156"/>
-      <c r="W77" s="156"/>
-      <c r="X77" s="156"/>
-      <c r="Y77" s="156"/>
-      <c r="Z77" s="156"/>
-      <c r="AA77" s="156"/>
-      <c r="AB77" s="156"/>
-      <c r="AC77" s="156"/>
-      <c r="AD77" s="156"/>
+      <c r="A77" s="140"/>
+      <c r="B77" s="142"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="133"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="131"/>
+      <c r="G77" s="131"/>
+      <c r="H77" s="131"/>
+      <c r="I77" s="131"/>
+      <c r="J77" s="131"/>
+      <c r="K77" s="131"/>
+      <c r="L77" s="131"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="131"/>
+      <c r="O77" s="131"/>
+      <c r="P77" s="131"/>
+      <c r="Q77" s="131"/>
+      <c r="R77" s="131"/>
+      <c r="S77" s="131"/>
+      <c r="T77" s="131"/>
+      <c r="U77" s="131"/>
+      <c r="V77" s="131"/>
+      <c r="W77" s="131"/>
+      <c r="X77" s="131"/>
+      <c r="Y77" s="131"/>
+      <c r="Z77" s="131"/>
+      <c r="AA77" s="131"/>
+      <c r="AB77" s="131"/>
+      <c r="AC77" s="131"/>
+      <c r="AD77" s="131"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A78" s="137"/>
-      <c r="B78" s="176"/>
-      <c r="C78" s="179"/>
-      <c r="D78" s="181"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="156"/>
-      <c r="G78" s="156"/>
-      <c r="H78" s="156"/>
-      <c r="I78" s="156"/>
-      <c r="J78" s="156"/>
-      <c r="K78" s="156"/>
-      <c r="L78" s="156"/>
-      <c r="M78" s="156"/>
-      <c r="N78" s="156"/>
-      <c r="O78" s="156"/>
-      <c r="P78" s="156"/>
-      <c r="Q78" s="156"/>
-      <c r="R78" s="156"/>
-      <c r="S78" s="156"/>
-      <c r="T78" s="156"/>
-      <c r="U78" s="156"/>
-      <c r="V78" s="156"/>
-      <c r="W78" s="156"/>
-      <c r="X78" s="156"/>
-      <c r="Y78" s="156"/>
-      <c r="Z78" s="156"/>
-      <c r="AA78" s="156"/>
-      <c r="AB78" s="156"/>
-      <c r="AC78" s="156"/>
-      <c r="AD78" s="156"/>
+      <c r="A78" s="140"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="131"/>
+      <c r="F78" s="131"/>
+      <c r="G78" s="131"/>
+      <c r="H78" s="131"/>
+      <c r="I78" s="131"/>
+      <c r="J78" s="131"/>
+      <c r="K78" s="131"/>
+      <c r="L78" s="131"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="131"/>
+      <c r="O78" s="131"/>
+      <c r="P78" s="131"/>
+      <c r="Q78" s="131"/>
+      <c r="R78" s="131"/>
+      <c r="S78" s="131"/>
+      <c r="T78" s="131"/>
+      <c r="U78" s="131"/>
+      <c r="V78" s="131"/>
+      <c r="W78" s="131"/>
+      <c r="X78" s="131"/>
+      <c r="Y78" s="131"/>
+      <c r="Z78" s="131"/>
+      <c r="AA78" s="131"/>
+      <c r="AB78" s="131"/>
+      <c r="AC78" s="131"/>
+      <c r="AD78" s="131"/>
     </row>
     <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="138"/>
-      <c r="B79" s="177"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="181"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="156"/>
-      <c r="H79" s="156"/>
-      <c r="I79" s="156"/>
-      <c r="J79" s="156"/>
-      <c r="K79" s="156"/>
-      <c r="L79" s="156"/>
-      <c r="M79" s="156"/>
-      <c r="N79" s="156"/>
-      <c r="O79" s="156"/>
-      <c r="P79" s="156"/>
-      <c r="Q79" s="156"/>
-      <c r="R79" s="156"/>
-      <c r="S79" s="156"/>
-      <c r="T79" s="156"/>
-      <c r="U79" s="156"/>
-      <c r="V79" s="156"/>
-      <c r="W79" s="156"/>
-      <c r="X79" s="156"/>
-      <c r="Y79" s="156"/>
-      <c r="Z79" s="156"/>
-      <c r="AA79" s="156"/>
-      <c r="AB79" s="156"/>
-      <c r="AC79" s="156"/>
-      <c r="AD79" s="156"/>
+      <c r="A79" s="135"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="146"/>
+      <c r="D79" s="133"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="131"/>
+      <c r="G79" s="131"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="131"/>
+      <c r="J79" s="131"/>
+      <c r="K79" s="131"/>
+      <c r="L79" s="131"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="131"/>
+      <c r="P79" s="131"/>
+      <c r="Q79" s="131"/>
+      <c r="R79" s="131"/>
+      <c r="S79" s="131"/>
+      <c r="T79" s="131"/>
+      <c r="U79" s="131"/>
+      <c r="V79" s="131"/>
+      <c r="W79" s="131"/>
+      <c r="X79" s="131"/>
+      <c r="Y79" s="131"/>
+      <c r="Z79" s="131"/>
+      <c r="AA79" s="131"/>
+      <c r="AB79" s="131"/>
+      <c r="AC79" s="131"/>
+      <c r="AD79" s="131"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A80" s="136" t="s">
+      <c r="A80" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="139">
+      <c r="B80" s="136">
         <v>2</v>
       </c>
-      <c r="C80" s="142" t="s">
+      <c r="C80" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="181">
+      <c r="D80" s="133">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="E80" s="156">
+      <c r="E80" s="131">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="F80" s="156">
+      <c r="F80" s="131">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="G80" s="156">
+      <c r="G80" s="131">
         <f>1*1</f>
         <v>1</v>
       </c>
-      <c r="H80" s="156">
+      <c r="H80" s="131">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="I80" s="156">
+      <c r="I80" s="131">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="J80" s="156">
+      <c r="J80" s="131">
         <f>1*3</f>
         <v>3</v>
       </c>
-      <c r="K80" s="156">
-        <v>0</v>
-      </c>
-      <c r="L80" s="156">
+      <c r="K80" s="131">
+        <v>0</v>
+      </c>
+      <c r="L80" s="131">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="M80" s="156">
+      <c r="M80" s="131">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="N80" s="156">
+      <c r="N80" s="131">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="O80" s="156">
+      <c r="O80" s="131">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="P80" s="156">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="156">
+      <c r="P80" s="131">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="131">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="R80" s="156">
+      <c r="R80" s="131">
         <f>1*1</f>
         <v>1</v>
       </c>
-      <c r="S80" s="156">
+      <c r="S80" s="131">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="T80" s="156">
+      <c r="T80" s="131">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="U80" s="156">
+      <c r="U80" s="131">
         <f>1*1</f>
         <v>1</v>
       </c>
-      <c r="V80" s="156">
+      <c r="V80" s="131">
         <f>2*1</f>
         <v>2</v>
       </c>
-      <c r="W80" s="156">
-        <v>0</v>
-      </c>
-      <c r="X80" s="156">
+      <c r="W80" s="131">
+        <v>0</v>
+      </c>
+      <c r="X80" s="131">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="Y80" s="156">
+      <c r="Y80" s="131">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="Z80" s="156">
+      <c r="Z80" s="131">
         <f>1.5*1</f>
         <v>1.5</v>
       </c>
-      <c r="AA80" s="156">
+      <c r="AA80" s="131">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="AB80" s="156">
+      <c r="AB80" s="131">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="AC80" s="156">
+      <c r="AC80" s="131">
         <f>1.5*2</f>
         <v>3</v>
       </c>
-      <c r="AD80" s="156">
+      <c r="AD80" s="131">
         <f>1*2</f>
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A81" s="138"/>
-      <c r="B81" s="141"/>
-      <c r="C81" s="144"/>
-      <c r="D81" s="181"/>
-      <c r="E81" s="156"/>
-      <c r="F81" s="156"/>
-      <c r="G81" s="156"/>
-      <c r="H81" s="156"/>
-      <c r="I81" s="156"/>
-      <c r="J81" s="156"/>
-      <c r="K81" s="156"/>
-      <c r="L81" s="156"/>
-      <c r="M81" s="156"/>
-      <c r="N81" s="156"/>
-      <c r="O81" s="156"/>
-      <c r="P81" s="156"/>
-      <c r="Q81" s="156"/>
-      <c r="R81" s="156"/>
-      <c r="S81" s="156"/>
-      <c r="T81" s="156"/>
-      <c r="U81" s="156"/>
-      <c r="V81" s="156"/>
-      <c r="W81" s="156"/>
-      <c r="X81" s="156"/>
-      <c r="Y81" s="156"/>
-      <c r="Z81" s="156"/>
-      <c r="AA81" s="156"/>
-      <c r="AB81" s="156"/>
-      <c r="AC81" s="156"/>
-      <c r="AD81" s="156"/>
+      <c r="A81" s="135"/>
+      <c r="B81" s="137"/>
+      <c r="C81" s="139"/>
+      <c r="D81" s="133"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="131"/>
+      <c r="J81" s="131"/>
+      <c r="K81" s="131"/>
+      <c r="L81" s="131"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="131"/>
+      <c r="O81" s="131"/>
+      <c r="P81" s="131"/>
+      <c r="Q81" s="131"/>
+      <c r="R81" s="131"/>
+      <c r="S81" s="131"/>
+      <c r="T81" s="131"/>
+      <c r="U81" s="131"/>
+      <c r="V81" s="131"/>
+      <c r="W81" s="131"/>
+      <c r="X81" s="131"/>
+      <c r="Y81" s="131"/>
+      <c r="Z81" s="131"/>
+      <c r="AA81" s="131"/>
+      <c r="AB81" s="131"/>
+      <c r="AC81" s="131"/>
+      <c r="AD81" s="131"/>
     </row>
     <row r="82" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="89" t="s">
@@ -10716,9 +10716,9 @@
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="AB82" s="87">
-        <f>1.5*2</f>
-        <v>3</v>
+      <c r="AB82" s="93">
+        <f>1.5*3+1*1</f>
+        <v>5.5</v>
       </c>
       <c r="AC82" s="87">
         <f>1.5*3</f>
@@ -10834,8 +10834,8 @@
         <v>24.5</v>
       </c>
       <c r="AB83" s="62">
-        <f>3*1+1.75*2</f>
-        <v>6.5</v>
+        <f>3*2+1.75*2</f>
+        <v>9.5</v>
       </c>
       <c r="AC83" s="61">
         <f>3*7</f>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="AB86" s="12">
         <f t="shared" si="4"/>
-        <v>32.5</v>
+        <v>50</v>
       </c>
       <c r="AC86" s="12">
         <f t="shared" si="4"/>
@@ -11151,86 +11151,22 @@
     <row r="87" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="AD70:AD72"/>
-    <mergeCell ref="AD73:AD79"/>
-    <mergeCell ref="AD80:AD81"/>
-    <mergeCell ref="AB80:AB81"/>
-    <mergeCell ref="AC70:AC72"/>
-    <mergeCell ref="AC73:AC79"/>
-    <mergeCell ref="AC80:AC81"/>
-    <mergeCell ref="AB70:AB72"/>
-    <mergeCell ref="AB73:AB79"/>
-    <mergeCell ref="AA70:AA72"/>
-    <mergeCell ref="AA73:AA79"/>
-    <mergeCell ref="AA80:AA81"/>
-    <mergeCell ref="Z70:Z72"/>
-    <mergeCell ref="Z73:Z79"/>
-    <mergeCell ref="Z80:Z81"/>
-    <mergeCell ref="Y70:Y72"/>
-    <mergeCell ref="Y73:Y79"/>
-    <mergeCell ref="Y80:Y81"/>
-    <mergeCell ref="X73:X79"/>
-    <mergeCell ref="X80:X81"/>
-    <mergeCell ref="W70:W72"/>
-    <mergeCell ref="W73:W79"/>
-    <mergeCell ref="W80:W81"/>
-    <mergeCell ref="V70:V72"/>
-    <mergeCell ref="V73:V79"/>
-    <mergeCell ref="V80:V81"/>
-    <mergeCell ref="U73:U79"/>
-    <mergeCell ref="U80:U81"/>
-    <mergeCell ref="T73:T79"/>
-    <mergeCell ref="T80:T81"/>
-    <mergeCell ref="S70:S72"/>
-    <mergeCell ref="S73:S79"/>
-    <mergeCell ref="S80:S81"/>
-    <mergeCell ref="R73:R79"/>
-    <mergeCell ref="R80:R81"/>
-    <mergeCell ref="Q70:Q72"/>
-    <mergeCell ref="Q73:Q79"/>
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="P73:P79"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="J73:J79"/>
-    <mergeCell ref="K73:K79"/>
-    <mergeCell ref="L73:L79"/>
-    <mergeCell ref="O70:O72"/>
-    <mergeCell ref="O73:O79"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="N70:N72"/>
-    <mergeCell ref="N73:N79"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="M70:M72"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="M73:M79"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="I73:I79"/>
-    <mergeCell ref="D73:D79"/>
-    <mergeCell ref="E73:E79"/>
-    <mergeCell ref="F73:F79"/>
-    <mergeCell ref="G73:G79"/>
-    <mergeCell ref="H73:H79"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:B79"/>
-    <mergeCell ref="C73:C79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="Z65:Z67"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A62:C67"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="R70:R72"/>
+    <mergeCell ref="U70:U72"/>
+    <mergeCell ref="X70:X72"/>
+    <mergeCell ref="P70:P72"/>
+    <mergeCell ref="T70:T72"/>
     <mergeCell ref="H53:H55"/>
     <mergeCell ref="Z53:Z56"/>
     <mergeCell ref="A1:B1"/>
@@ -11253,22 +11189,86 @@
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="Z65:Z67"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A62:C67"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="R70:R72"/>
-    <mergeCell ref="U70:U72"/>
-    <mergeCell ref="X70:X72"/>
-    <mergeCell ref="P70:P72"/>
-    <mergeCell ref="T70:T72"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="C73:C79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="I73:I79"/>
+    <mergeCell ref="D73:D79"/>
+    <mergeCell ref="E73:E79"/>
+    <mergeCell ref="F73:F79"/>
+    <mergeCell ref="G73:G79"/>
+    <mergeCell ref="H73:H79"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="P73:P79"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="J73:J79"/>
+    <mergeCell ref="K73:K79"/>
+    <mergeCell ref="L73:L79"/>
+    <mergeCell ref="O70:O72"/>
+    <mergeCell ref="O73:O79"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="N70:N72"/>
+    <mergeCell ref="N73:N79"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="M70:M72"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M73:M79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="T73:T79"/>
+    <mergeCell ref="T80:T81"/>
+    <mergeCell ref="S70:S72"/>
+    <mergeCell ref="S73:S79"/>
+    <mergeCell ref="S80:S81"/>
+    <mergeCell ref="R73:R79"/>
+    <mergeCell ref="R80:R81"/>
+    <mergeCell ref="Q70:Q72"/>
+    <mergeCell ref="Q73:Q79"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="X73:X79"/>
+    <mergeCell ref="X80:X81"/>
+    <mergeCell ref="W70:W72"/>
+    <mergeCell ref="W73:W79"/>
+    <mergeCell ref="W80:W81"/>
+    <mergeCell ref="V70:V72"/>
+    <mergeCell ref="V73:V79"/>
+    <mergeCell ref="V80:V81"/>
+    <mergeCell ref="U73:U79"/>
+    <mergeCell ref="U80:U81"/>
+    <mergeCell ref="AA70:AA72"/>
+    <mergeCell ref="AA73:AA79"/>
+    <mergeCell ref="AA80:AA81"/>
+    <mergeCell ref="Z70:Z72"/>
+    <mergeCell ref="Z73:Z79"/>
+    <mergeCell ref="Z80:Z81"/>
+    <mergeCell ref="Y70:Y72"/>
+    <mergeCell ref="Y73:Y79"/>
+    <mergeCell ref="Y80:Y81"/>
+    <mergeCell ref="AD70:AD72"/>
+    <mergeCell ref="AD73:AD79"/>
+    <mergeCell ref="AD80:AD81"/>
+    <mergeCell ref="AB80:AB81"/>
+    <mergeCell ref="AC70:AC72"/>
+    <mergeCell ref="AC73:AC79"/>
+    <mergeCell ref="AC80:AC81"/>
+    <mergeCell ref="AB70:AB72"/>
+    <mergeCell ref="AB73:AB79"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
